--- a/Reifendaten_angepasst_Flaeche.xlsx
+++ b/Reifendaten_angepasst_Flaeche.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maciu\OneDrive\Desktop\TU Berlin\2.Semester\FE2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maciu\OneDrive\Desktop\TU Berlin\2.Semester\FE2\Flugzeugentwurf_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D35F88E-925C-4598-8A78-376ED7A8F540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E1D3698-91CE-42D4-862E-710B43D29C16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2035,8 +2035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA258"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="AB5" sqref="AB5"/>
+    <sheetView tabSelected="1" topLeftCell="L193" workbookViewId="0">
+      <selection activeCell="Y202" sqref="Y202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2216,12 +2216,12 @@
         <v>0.94</v>
       </c>
       <c r="Y2" s="24">
-        <f>(0.32*(K2-V2))/200</f>
-        <v>1.5600000000000001E-2</v>
+        <f>(32*(L2-V2))/200</f>
+        <v>1.472</v>
       </c>
       <c r="Z2" s="24">
-        <f>2.54*Y2*SQRT((K2-Y2)*(M2-Y2))</f>
-        <v>0.36221967753898238</v>
+        <f>2.54*Y2*SQRT((L2-Y2)*(N2-Y2))</f>
+        <v>26.483409471033749</v>
       </c>
       <c r="AA2" s="23"/>
     </row>
@@ -2299,12 +2299,12 @@
         <v>1.5</v>
       </c>
       <c r="Y3" s="24">
-        <f t="shared" ref="Y3:Y66" si="0">(0.32*(K3-V3))/200</f>
-        <v>1.3600000000000001E-2</v>
+        <f t="shared" ref="Y3:Y66" si="0">(32*(L3-V3))/200</f>
+        <v>1.28</v>
       </c>
       <c r="Z3" s="24">
-        <f t="shared" ref="Z3:Z66" si="1">2.54*Y3*SQRT((K3-Y3)*(M3-Y3))</f>
-        <v>0.30796161982939474</v>
+        <f t="shared" ref="Z3:Z66" si="1">2.54*Y3*SQRT((L3-Y3)*(N3-Y3))</f>
+        <v>22.810915957190673</v>
       </c>
       <c r="AA3" s="23"/>
     </row>
@@ -2383,11 +2383,11 @@
       </c>
       <c r="Y4" s="24">
         <f t="shared" si="0"/>
-        <v>1.3119999999999998E-2</v>
+        <v>1.232</v>
       </c>
       <c r="Z4" s="24">
         <f t="shared" si="1"/>
-        <v>0.29401787224828763</v>
+        <v>21.871322128850654</v>
       </c>
       <c r="AA4" s="23"/>
     </row>
@@ -2466,11 +2466,11 @@
       </c>
       <c r="Y5" s="24">
         <f t="shared" si="0"/>
-        <v>1.3600000000000001E-2</v>
+        <v>1.28</v>
       </c>
       <c r="Z5" s="24">
         <f t="shared" si="1"/>
-        <v>0.30796161982939474</v>
+        <v>22.810915957190673</v>
       </c>
       <c r="AA5" s="23"/>
     </row>
@@ -2549,11 +2549,11 @@
       </c>
       <c r="Y6" s="24">
         <f t="shared" si="0"/>
-        <v>1.3600000000000001E-2</v>
+        <v>1.28</v>
       </c>
       <c r="Z6" s="24">
         <f t="shared" si="1"/>
-        <v>0.30796161982939474</v>
+        <v>22.810915957190673</v>
       </c>
       <c r="AA6" s="23"/>
     </row>
@@ -2632,11 +2632,11 @@
       </c>
       <c r="Y7" s="24">
         <f t="shared" si="0"/>
-        <v>1.472E-2</v>
+        <v>1.3680000000000001</v>
       </c>
       <c r="Z7" s="24">
         <f t="shared" si="1"/>
-        <v>0.36527104202756261</v>
+        <v>26.856871315459973</v>
       </c>
       <c r="AA7" s="23"/>
     </row>
@@ -2715,11 +2715,11 @@
       </c>
       <c r="Y8" s="24">
         <f t="shared" si="0"/>
-        <v>1.472E-2</v>
+        <v>1.3680000000000001</v>
       </c>
       <c r="Z8" s="24">
         <f t="shared" si="1"/>
-        <v>0.36527104202756261</v>
+        <v>26.856871315459973</v>
       </c>
       <c r="AA8" s="23"/>
     </row>
@@ -2796,11 +2796,11 @@
       <c r="X9" s="11"/>
       <c r="Y9" s="24">
         <f t="shared" si="0"/>
-        <v>1.472E-2</v>
+        <v>1.3680000000000001</v>
       </c>
       <c r="Z9" s="24">
         <f t="shared" si="1"/>
-        <v>0.37246462218346132</v>
+        <v>26.856871315459973</v>
       </c>
       <c r="AA9" s="23"/>
     </row>
@@ -2879,11 +2879,11 @@
       </c>
       <c r="Y10" s="24">
         <f t="shared" si="0"/>
-        <v>1.472E-2</v>
+        <v>1.3680000000000001</v>
       </c>
       <c r="Z10" s="24">
         <f t="shared" si="1"/>
-        <v>0.36527104202756261</v>
+        <v>26.856871315459973</v>
       </c>
       <c r="AA10" s="23"/>
     </row>
@@ -2962,11 +2962,11 @@
       </c>
       <c r="Y11" s="24">
         <f t="shared" si="0"/>
-        <v>1.472E-2</v>
+        <v>1.3680000000000001</v>
       </c>
       <c r="Z11" s="24">
         <f t="shared" si="1"/>
-        <v>0.36527104202756261</v>
+        <v>26.856871315459973</v>
       </c>
       <c r="AA11" s="23"/>
     </row>
@@ -3045,11 +3045,11 @@
       </c>
       <c r="Y12" s="24">
         <f t="shared" si="0"/>
-        <v>1.52E-2</v>
+        <v>1.4319999999999999</v>
       </c>
       <c r="Z12" s="24">
         <f t="shared" si="1"/>
-        <v>0.38660438652012979</v>
+        <v>28.541739636436645</v>
       </c>
       <c r="AA12" s="23"/>
     </row>
@@ -3128,11 +3128,11 @@
       </c>
       <c r="Y13" s="24">
         <f t="shared" si="0"/>
-        <v>1.52E-2</v>
+        <v>1.4319999999999999</v>
       </c>
       <c r="Z13" s="24">
         <f t="shared" si="1"/>
-        <v>0.38660438652012979</v>
+        <v>28.541739636436645</v>
       </c>
       <c r="AA13" s="23"/>
     </row>
@@ -3211,11 +3211,11 @@
       </c>
       <c r="Y14" s="24">
         <f t="shared" si="0"/>
-        <v>1.52E-2</v>
+        <v>1.4319999999999999</v>
       </c>
       <c r="Z14" s="24">
         <f t="shared" si="1"/>
-        <v>0.38660438652012979</v>
+        <v>28.541739636436645</v>
       </c>
       <c r="AA14" s="23"/>
     </row>
@@ -3294,11 +3294,11 @@
       </c>
       <c r="Y15" s="24">
         <f t="shared" si="0"/>
-        <v>1.84E-2</v>
+        <v>1.7360000000000002</v>
       </c>
       <c r="Z15" s="24">
         <f t="shared" si="1"/>
-        <v>0.48780013185297449</v>
+        <v>34.980700878676487</v>
       </c>
       <c r="AA15" s="23"/>
     </row>
@@ -3377,11 +3377,11 @@
       </c>
       <c r="Y16" s="24">
         <f t="shared" si="0"/>
-        <v>1.84E-2</v>
+        <v>1.7360000000000002</v>
       </c>
       <c r="Z16" s="24">
         <f t="shared" si="1"/>
-        <v>0.48780013185297449</v>
+        <v>34.980700878676487</v>
       </c>
       <c r="AA16" s="23"/>
     </row>
@@ -3460,11 +3460,11 @@
       </c>
       <c r="Y17" s="24">
         <f t="shared" si="0"/>
-        <v>1.84E-2</v>
+        <v>1.7360000000000002</v>
       </c>
       <c r="Z17" s="24">
         <f t="shared" si="1"/>
-        <v>0.48780013185297449</v>
+        <v>34.980700878676487</v>
       </c>
       <c r="AA17" s="23"/>
     </row>
@@ -3543,11 +3543,11 @@
       </c>
       <c r="Y18" s="24">
         <f t="shared" si="0"/>
-        <v>1.0719999999999999E-2</v>
+        <v>1.008</v>
       </c>
       <c r="Z18" s="24">
         <f t="shared" si="1"/>
-        <v>0.28259635269739802</v>
+        <v>22.385172796646557</v>
       </c>
       <c r="AA18" s="23"/>
     </row>
@@ -3626,11 +3626,11 @@
       </c>
       <c r="Y19" s="24">
         <f t="shared" si="0"/>
-        <v>1.32E-2</v>
+        <v>1.24</v>
       </c>
       <c r="Z19" s="24">
         <f t="shared" si="1"/>
-        <v>0.30997036599892236</v>
+        <v>22.928806783989785</v>
       </c>
       <c r="AA19" s="23"/>
     </row>
@@ -3709,11 +3709,11 @@
       </c>
       <c r="Y20" s="24">
         <f t="shared" si="0"/>
-        <v>1.584E-2</v>
+        <v>1.4880000000000002</v>
       </c>
       <c r="Z20" s="24">
         <f t="shared" si="1"/>
-        <v>0.40565451512397277</v>
+        <v>29.534946287772499</v>
       </c>
       <c r="AA20" s="23"/>
     </row>
@@ -3792,11 +3792,11 @@
       </c>
       <c r="Y21" s="24">
         <f t="shared" si="0"/>
-        <v>1.584E-2</v>
+        <v>1.4880000000000002</v>
       </c>
       <c r="Z21" s="24">
         <f t="shared" si="1"/>
-        <v>0.40565451512397277</v>
+        <v>29.534946287772499</v>
       </c>
       <c r="AA21" s="23"/>
     </row>
@@ -3875,11 +3875,11 @@
       </c>
       <c r="Y22" s="24">
         <f t="shared" si="0"/>
-        <v>1.6E-2</v>
+        <v>1.5039999999999998</v>
       </c>
       <c r="Z22" s="24">
         <f t="shared" si="1"/>
-        <v>0.41269165821961756</v>
+        <v>30.063182552971785</v>
       </c>
       <c r="AA22" s="23"/>
     </row>
@@ -3958,11 +3958,11 @@
       </c>
       <c r="Y23" s="24">
         <f t="shared" si="0"/>
-        <v>1.6E-2</v>
+        <v>1.5119999999999998</v>
       </c>
       <c r="Z23" s="24">
         <f t="shared" si="1"/>
-        <v>0.43885227018765394</v>
+        <v>33.196799889721262</v>
       </c>
       <c r="AA23" s="23"/>
     </row>
@@ -4041,11 +4041,11 @@
       </c>
       <c r="Y24" s="24">
         <f t="shared" si="0"/>
-        <v>1.84E-2</v>
+        <v>1.7439999999999998</v>
       </c>
       <c r="Z24" s="24">
         <f t="shared" si="1"/>
-        <v>0.53520849928019953</v>
+        <v>38.731187000913934</v>
       </c>
       <c r="AA24" s="23"/>
     </row>
@@ -4124,11 +4124,11 @@
       </c>
       <c r="Y25" s="24">
         <f t="shared" si="0"/>
-        <v>1.7919999999999998E-2</v>
+        <v>1.7439999999999998</v>
       </c>
       <c r="Z25" s="24">
         <f t="shared" si="1"/>
-        <v>0.50164070262109006</v>
+        <v>38.731187000913934</v>
       </c>
       <c r="AA25" s="23"/>
     </row>
@@ -4207,11 +4207,11 @@
       </c>
       <c r="Y26" s="24">
         <f t="shared" si="0"/>
-        <v>1.7919999999999998E-2</v>
+        <v>1.7439999999999998</v>
       </c>
       <c r="Z26" s="24">
         <f t="shared" si="1"/>
-        <v>0.50164070262109006</v>
+        <v>38.731187000913934</v>
       </c>
       <c r="AA26" s="23"/>
     </row>
@@ -4290,11 +4290,11 @@
       </c>
       <c r="Y27" s="24">
         <f t="shared" si="0"/>
-        <v>1.52E-2</v>
+        <v>1.4239999999999997</v>
       </c>
       <c r="Z27" s="24">
         <f t="shared" si="1"/>
-        <v>0.44227015377383033</v>
+        <v>33.559225370811212</v>
       </c>
       <c r="AA27" s="23"/>
     </row>
@@ -4373,11 +4373,11 @@
       </c>
       <c r="Y28" s="24">
         <f t="shared" si="0"/>
-        <v>1.6799999999999999E-2</v>
+        <v>1.6</v>
       </c>
       <c r="Z28" s="24">
         <f t="shared" si="1"/>
-        <v>0.50113260324702813</v>
+        <v>37.993509845761814</v>
       </c>
       <c r="AA28" s="23"/>
     </row>
@@ -4456,11 +4456,11 @@
       </c>
       <c r="Y29" s="24">
         <f t="shared" si="0"/>
-        <v>1.7600000000000001E-2</v>
+        <v>1.6719999999999999</v>
       </c>
       <c r="Z29" s="24">
         <f t="shared" si="1"/>
-        <v>0.52136500647529993</v>
+        <v>38.725627455856539</v>
       </c>
       <c r="AA29" s="23"/>
     </row>
@@ -4539,11 +4539,11 @@
       </c>
       <c r="Y30" s="24">
         <f t="shared" si="0"/>
-        <v>1.8000000000000002E-2</v>
+        <v>1.6960000000000002</v>
       </c>
       <c r="Z30" s="24">
         <f t="shared" si="1"/>
-        <v>0.5645785511428163</v>
+        <v>42.314747305799294</v>
       </c>
       <c r="AA30" s="23"/>
     </row>
@@ -4622,11 +4622,11 @@
       </c>
       <c r="Y31" s="24">
         <f t="shared" si="0"/>
-        <v>1.8000000000000002E-2</v>
+        <v>1.6960000000000002</v>
       </c>
       <c r="Z31" s="24">
         <f t="shared" si="1"/>
-        <v>0.5645785511428163</v>
+        <v>42.314747305799294</v>
       </c>
       <c r="AA31" s="23"/>
     </row>
@@ -4705,11 +4705,11 @@
       </c>
       <c r="Y32" s="24">
         <f t="shared" si="0"/>
-        <v>1.8000000000000002E-2</v>
+        <v>1.6960000000000002</v>
       </c>
       <c r="Z32" s="24">
         <f t="shared" si="1"/>
-        <v>0.5645785511428163</v>
+        <v>42.314747305799294</v>
       </c>
       <c r="AA32" s="23"/>
     </row>
@@ -4786,11 +4786,11 @@
       <c r="X33" s="11"/>
       <c r="Y33" s="24">
         <f t="shared" si="0"/>
-        <v>1.8816000000000003E-2</v>
+        <v>1.7824</v>
       </c>
       <c r="Z33" s="24">
         <f t="shared" si="1"/>
-        <v>0.59090388917349379</v>
+        <v>44.305938086441039</v>
       </c>
       <c r="AA33" s="23"/>
     </row>
@@ -4869,11 +4869,11 @@
       </c>
       <c r="Y34" s="24">
         <f t="shared" si="0"/>
-        <v>1.6E-2</v>
+        <v>1.5039999999999998</v>
       </c>
       <c r="Z34" s="24">
         <f t="shared" si="1"/>
-        <v>0.45628469462568827</v>
+        <v>33.633643232541097</v>
       </c>
       <c r="AA34" s="23"/>
     </row>
@@ -4952,11 +4952,11 @@
       </c>
       <c r="Y35" s="24">
         <f t="shared" si="0"/>
-        <v>1.6E-2</v>
+        <v>1.5039999999999998</v>
       </c>
       <c r="Z35" s="24">
         <f t="shared" si="1"/>
-        <v>0.45628469462568827</v>
+        <v>33.633643232541097</v>
       </c>
       <c r="AA35" s="23"/>
     </row>
@@ -5035,11 +5035,11 @@
       </c>
       <c r="Y36" s="24">
         <f t="shared" si="0"/>
-        <v>1.9360000000000002E-2</v>
+        <v>1.8160000000000003</v>
       </c>
       <c r="Z36" s="24">
         <f t="shared" si="1"/>
-        <v>0.59500775040789899</v>
+        <v>42.928231452773346</v>
       </c>
       <c r="AA36" s="23"/>
     </row>
@@ -5118,11 +5118,11 @@
       </c>
       <c r="Y37" s="24">
         <f t="shared" si="0"/>
-        <v>1.9519999999999999E-2</v>
+        <v>1.8560000000000003</v>
       </c>
       <c r="Z37" s="24">
         <f t="shared" si="1"/>
-        <v>0.60803589701825123</v>
+        <v>44.652771629523997</v>
       </c>
       <c r="AA37" s="23"/>
     </row>
@@ -5201,11 +5201,11 @@
       </c>
       <c r="Y38" s="24">
         <f t="shared" si="0"/>
-        <v>1.9519999999999999E-2</v>
+        <v>1.8560000000000003</v>
       </c>
       <c r="Z38" s="24">
         <f t="shared" si="1"/>
-        <v>0.60803589701825123</v>
+        <v>44.652771629523997</v>
       </c>
       <c r="AA38" s="23"/>
     </row>
@@ -5284,11 +5284,11 @@
       </c>
       <c r="Y39" s="24">
         <f t="shared" si="0"/>
-        <v>1.9519999999999999E-2</v>
+        <v>1.8560000000000003</v>
       </c>
       <c r="Z39" s="24">
         <f t="shared" si="1"/>
-        <v>0.60803589701825123</v>
+        <v>44.652771629523997</v>
       </c>
       <c r="AA39" s="23"/>
     </row>
@@ -5367,11 +5367,11 @@
       </c>
       <c r="Y40" s="24">
         <f t="shared" si="0"/>
-        <v>1.9519999999999999E-2</v>
+        <v>1.8560000000000003</v>
       </c>
       <c r="Z40" s="24">
         <f t="shared" si="1"/>
-        <v>0.60803589701825123</v>
+        <v>44.652771629523997</v>
       </c>
       <c r="AA40" s="23"/>
     </row>
@@ -5450,11 +5450,11 @@
       </c>
       <c r="Y41" s="24">
         <f t="shared" si="0"/>
-        <v>1.9199999999999998E-2</v>
+        <v>1.8080000000000001</v>
       </c>
       <c r="Z41" s="24">
         <f t="shared" si="1"/>
-        <v>0.59318482968484165</v>
+        <v>43.209964454989048</v>
       </c>
       <c r="AA41" s="23"/>
     </row>
@@ -5533,11 +5533,11 @@
       </c>
       <c r="Y42" s="24">
         <f t="shared" si="0"/>
-        <v>1.9199999999999998E-2</v>
+        <v>1.8080000000000001</v>
       </c>
       <c r="Z42" s="24">
         <f t="shared" si="1"/>
-        <v>0.59318482968484165</v>
+        <v>43.209964454989048</v>
       </c>
       <c r="AA42" s="23"/>
     </row>
@@ -5616,11 +5616,11 @@
       </c>
       <c r="Y43" s="24">
         <f t="shared" si="0"/>
-        <v>2.112E-2</v>
+        <v>2</v>
       </c>
       <c r="Z43" s="24">
         <f t="shared" si="1"/>
-        <v>0.70462163211082096</v>
+        <v>51.886922051707785</v>
       </c>
       <c r="AA43" s="23"/>
     </row>
@@ -5699,11 +5699,11 @@
       </c>
       <c r="Y44" s="24">
         <f t="shared" si="0"/>
-        <v>1.9199999999999998E-2</v>
+        <v>1.8080000000000001</v>
       </c>
       <c r="Z44" s="24">
         <f t="shared" si="1"/>
-        <v>0.63572444549035068</v>
+        <v>47.514439268370943</v>
       </c>
       <c r="AA44" s="23"/>
     </row>
@@ -5782,11 +5782,11 @@
       </c>
       <c r="Y45" s="24">
         <f t="shared" si="0"/>
-        <v>1.9199999999999998E-2</v>
+        <v>1.8080000000000001</v>
       </c>
       <c r="Z45" s="24">
         <f t="shared" si="1"/>
-        <v>0.63572444549035068</v>
+        <v>47.514439268370943</v>
       </c>
       <c r="AA45" s="23"/>
     </row>
@@ -5865,11 +5865,11 @@
       </c>
       <c r="Y46" s="24">
         <f t="shared" si="0"/>
-        <v>2.2400000000000003E-2</v>
+        <v>2.1280000000000001</v>
       </c>
       <c r="Z46" s="24">
         <f t="shared" si="1"/>
-        <v>0.75336943384666766</v>
+        <v>55.108527524649517</v>
       </c>
       <c r="AA46" s="23"/>
     </row>
@@ -5948,11 +5948,11 @@
       </c>
       <c r="Y47" s="24">
         <f t="shared" si="0"/>
-        <v>1.9199999999999998E-2</v>
+        <v>1.8160000000000003</v>
       </c>
       <c r="Z47" s="24">
         <f t="shared" si="1"/>
-        <v>0.64592174657651724</v>
+        <v>48.817327104355641</v>
       </c>
       <c r="AA47" s="23"/>
     </row>
@@ -6031,11 +6031,11 @@
       </c>
       <c r="Y48" s="24">
         <f t="shared" si="0"/>
-        <v>1.9199999999999998E-2</v>
+        <v>1.8160000000000003</v>
       </c>
       <c r="Z48" s="24">
         <f t="shared" si="1"/>
-        <v>0.64592174657651724</v>
+        <v>48.817327104355641</v>
       </c>
       <c r="AA48" s="23"/>
     </row>
@@ -6114,11 +6114,11 @@
       </c>
       <c r="Y49" s="24">
         <f t="shared" si="0"/>
-        <v>1.9199999999999998E-2</v>
+        <v>1.8239999999999998</v>
       </c>
       <c r="Z49" s="24">
         <f t="shared" si="1"/>
-        <v>0.65596054363574596</v>
+        <v>50.110163894864378</v>
       </c>
       <c r="AA49" s="23"/>
     </row>
@@ -6197,11 +6197,11 @@
       </c>
       <c r="Y50" s="24">
         <f t="shared" si="0"/>
-        <v>1.9199999999999998E-2</v>
+        <v>1.8160000000000003</v>
       </c>
       <c r="Z50" s="24">
         <f t="shared" si="1"/>
-        <v>0.65596054363574596</v>
+        <v>49.870181053375951</v>
       </c>
       <c r="AA50" s="23"/>
     </row>
@@ -6280,11 +6280,11 @@
       </c>
       <c r="Y51" s="24">
         <f t="shared" si="0"/>
-        <v>1.7600000000000001E-2</v>
+        <v>1.6639999999999997</v>
       </c>
       <c r="Z51" s="24">
         <f t="shared" si="1"/>
-        <v>0.61044046110236239</v>
+        <v>47.634830536374572</v>
       </c>
       <c r="AA51" s="23"/>
     </row>
@@ -6363,11 +6363,11 @@
       </c>
       <c r="Y52" s="24">
         <f t="shared" si="0"/>
-        <v>1.7919999999999998E-2</v>
+        <v>1.6960000000000002</v>
       </c>
       <c r="Z52" s="24">
         <f t="shared" si="1"/>
-        <v>0.58731763489040079</v>
+        <v>44.496883612074384</v>
       </c>
       <c r="AA52" s="23"/>
     </row>
@@ -6446,11 +6446,11 @@
       </c>
       <c r="Y53" s="24">
         <f t="shared" si="0"/>
-        <v>0.02</v>
+        <v>1.9119999999999999</v>
       </c>
       <c r="Z53" s="24">
         <f t="shared" si="1"/>
-        <v>0.68741692054822168</v>
+        <v>51.425822352612599</v>
       </c>
       <c r="AA53" s="23"/>
     </row>
@@ -6529,11 +6529,11 @@
       </c>
       <c r="Y54" s="24">
         <f t="shared" si="0"/>
-        <v>1.7600000000000001E-2</v>
+        <v>1.6639999999999997</v>
       </c>
       <c r="Z54" s="24">
         <f t="shared" si="1"/>
-        <v>0.61852812030966087</v>
+        <v>47.806503388572786</v>
       </c>
       <c r="AA54" s="23"/>
     </row>
@@ -6612,11 +6612,11 @@
       </c>
       <c r="Y55" s="24">
         <f t="shared" si="0"/>
-        <v>2.1600000000000001E-2</v>
+        <v>2.048</v>
       </c>
       <c r="Z55" s="24">
         <f t="shared" si="1"/>
-        <v>0.82711345239524825</v>
+        <v>63.001523260665941</v>
       </c>
       <c r="AA55" s="23"/>
     </row>
@@ -6695,11 +6695,11 @@
       </c>
       <c r="Y56" s="24">
         <f t="shared" si="0"/>
-        <v>2.0799999999999999E-2</v>
+        <v>1.9839999999999998</v>
       </c>
       <c r="Z56" s="24">
         <f t="shared" si="1"/>
-        <v>0.74587489489308056</v>
+        <v>56.289325467820298</v>
       </c>
       <c r="AA56" s="23"/>
     </row>
@@ -6778,11 +6778,11 @@
       </c>
       <c r="Y57" s="24">
         <f t="shared" si="0"/>
-        <v>1.84E-2</v>
+        <v>1.7280000000000002</v>
       </c>
       <c r="Z57" s="24">
         <f t="shared" si="1"/>
-        <v>0.66651490568982552</v>
+        <v>50.869348654038859</v>
       </c>
       <c r="AA57" s="23"/>
     </row>
@@ -6861,11 +6861,11 @@
       </c>
       <c r="Y58" s="24">
         <f t="shared" si="0"/>
-        <v>1.84E-2</v>
+        <v>1.7280000000000002</v>
       </c>
       <c r="Z58" s="24">
         <f t="shared" si="1"/>
-        <v>0.66651490568982552</v>
+        <v>50.869348654038859</v>
       </c>
       <c r="AA58" s="23"/>
     </row>
@@ -6944,11 +6944,11 @@
       </c>
       <c r="Y59" s="24">
         <f t="shared" si="0"/>
-        <v>2.4960000000000003E-2</v>
+        <v>2.3519999999999999</v>
       </c>
       <c r="Z59" s="24">
         <f t="shared" si="1"/>
-        <v>0.94160123049445454</v>
+        <v>68.587148810726504</v>
       </c>
       <c r="AA59" s="23"/>
     </row>
@@ -7027,11 +7027,11 @@
       </c>
       <c r="Y60" s="24">
         <f t="shared" si="0"/>
-        <v>1.8800000000000001E-2</v>
+        <v>1.7760000000000002</v>
       </c>
       <c r="Z60" s="24">
         <f t="shared" si="1"/>
-        <v>0.62844580769216252</v>
+        <v>46.593600812440428</v>
       </c>
       <c r="AA60" s="23"/>
     </row>
@@ -7110,11 +7110,11 @@
       </c>
       <c r="Y61" s="24">
         <f t="shared" si="0"/>
-        <v>2.4E-2</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="Z61" s="24">
         <f t="shared" si="1"/>
-        <v>0.98131698620967611</v>
+        <v>75.703928018436017</v>
       </c>
       <c r="AA61" s="23"/>
     </row>
@@ -7193,11 +7193,11 @@
       </c>
       <c r="Y62" s="24">
         <f t="shared" si="0"/>
-        <v>1.9199999999999998E-2</v>
+        <v>1.8080000000000001</v>
       </c>
       <c r="Z62" s="24">
         <f t="shared" si="1"/>
-        <v>0.64490322421844926</v>
+        <v>47.384585880189292</v>
       </c>
       <c r="AA62" s="23"/>
     </row>
@@ -7276,11 +7276,11 @@
       </c>
       <c r="Y63" s="24">
         <f t="shared" si="0"/>
-        <v>3.2000000000000001E-2</v>
+        <v>3.056</v>
       </c>
       <c r="Z63" s="24">
         <f t="shared" si="1"/>
-        <v>1.3400925819292195</v>
+        <v>95.690298036670086</v>
       </c>
       <c r="AA63" s="23"/>
     </row>
@@ -7359,11 +7359,11 @@
       </c>
       <c r="Y64" s="24">
         <f t="shared" si="0"/>
-        <v>0.02</v>
+        <v>1.9039999999999997</v>
       </c>
       <c r="Z64" s="24">
         <f t="shared" si="1"/>
-        <v>0.73845519204349841</v>
+        <v>56.291202239727909</v>
       </c>
       <c r="AA64" s="23"/>
     </row>
@@ -7442,11 +7442,11 @@
       </c>
       <c r="Y65" s="24">
         <f t="shared" si="0"/>
-        <v>1.9199999999999998E-2</v>
+        <v>1.8080000000000001</v>
       </c>
       <c r="Z65" s="24">
         <f t="shared" si="1"/>
-        <v>0.70432738677614248</v>
+        <v>53.261026509863804</v>
       </c>
       <c r="AA65" s="23"/>
     </row>
@@ -7525,11 +7525,11 @@
       </c>
       <c r="Y66" s="24">
         <f t="shared" si="0"/>
-        <v>2.12E-2</v>
+        <v>2.008</v>
       </c>
       <c r="Z66" s="24">
         <f t="shared" si="1"/>
-        <v>0.83774604574557177</v>
+        <v>63.766680990542874</v>
       </c>
       <c r="AA66" s="23"/>
     </row>
@@ -7607,12 +7607,12 @@
         <v>2.25</v>
       </c>
       <c r="Y67" s="24">
-        <f t="shared" ref="Y67:Y130" si="2">(0.32*(K67-V67))/200</f>
-        <v>2.2160000000000003E-2</v>
+        <f t="shared" ref="Y67:Y130" si="2">(32*(L67-V67))/200</f>
+        <v>2.1280000000000001</v>
       </c>
       <c r="Z67" s="24">
-        <f t="shared" ref="Z67:Z130" si="3">2.54*Y67*SQRT((K67-Y67)*(M67-Y67))</f>
-        <v>0.89461151407399686</v>
+        <f t="shared" ref="Z67:Z130" si="3">2.54*Y67*SQRT((L67-Y67)*(N67-Y67))</f>
+        <v>68.989572860931929</v>
       </c>
       <c r="AA67" s="23"/>
     </row>
@@ -7691,11 +7691,11 @@
       </c>
       <c r="Y68" s="24">
         <f t="shared" si="2"/>
-        <v>2.2400000000000003E-2</v>
+        <v>2.1120000000000001</v>
       </c>
       <c r="Z68" s="24">
         <f t="shared" si="3"/>
-        <v>0.91768380451625153</v>
+        <v>69.251706079728734</v>
       </c>
       <c r="AA68" s="23"/>
     </row>
@@ -7774,11 +7774,11 @@
       </c>
       <c r="Y69" s="24">
         <f t="shared" si="2"/>
-        <v>3.04E-2</v>
+        <v>2.8960000000000004</v>
       </c>
       <c r="Z69" s="24">
         <f t="shared" si="3"/>
-        <v>1.3764928040623097</v>
+        <v>101.1610718610273</v>
       </c>
       <c r="AA69" s="23"/>
     </row>
@@ -7857,11 +7857,11 @@
       </c>
       <c r="Y70" s="24">
         <f t="shared" si="2"/>
-        <v>3.04E-2</v>
+        <v>2.8960000000000004</v>
       </c>
       <c r="Z70" s="24">
         <f t="shared" si="3"/>
-        <v>1.3764928040623097</v>
+        <v>101.1610718610273</v>
       </c>
       <c r="AA70" s="23"/>
     </row>
@@ -7940,11 +7940,11 @@
       </c>
       <c r="Y71" s="24">
         <f t="shared" si="2"/>
-        <v>2.5600000000000001E-2</v>
+        <v>2.4</v>
       </c>
       <c r="Z71" s="24">
         <f t="shared" si="3"/>
-        <v>1.0957835824535105</v>
+        <v>80.464890875959057</v>
       </c>
       <c r="AA71" s="23"/>
     </row>
@@ -8023,11 +8023,11 @@
       </c>
       <c r="Y72" s="24">
         <f t="shared" si="2"/>
-        <v>2.2400000000000003E-2</v>
+        <v>2.1360000000000001</v>
       </c>
       <c r="Z72" s="24">
         <f t="shared" si="3"/>
-        <v>0.9590237287229153</v>
+        <v>73.88090723727376</v>
       </c>
       <c r="AA72" s="23"/>
     </row>
@@ -8106,11 +8106,11 @@
       </c>
       <c r="Y73" s="24">
         <f t="shared" si="2"/>
-        <v>2.4399999999999998E-2</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="Z73" s="24">
         <f t="shared" si="3"/>
-        <v>1.1446601367308322</v>
+        <v>87.984015072653364</v>
       </c>
       <c r="AA73" s="23"/>
     </row>
@@ -8189,11 +8189,11 @@
       </c>
       <c r="Y74" s="24">
         <f t="shared" si="2"/>
-        <v>2.4399999999999998E-2</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="Z74" s="24">
         <f t="shared" si="3"/>
-        <v>1.1446601367308322</v>
+        <v>87.984015072653364</v>
       </c>
       <c r="AA74" s="23"/>
     </row>
@@ -8272,11 +8272,11 @@
       </c>
       <c r="Y75" s="24">
         <f t="shared" si="2"/>
-        <v>2.4399999999999998E-2</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="Z75" s="24">
         <f t="shared" si="3"/>
-        <v>1.1446601367308322</v>
+        <v>87.984015072653364</v>
       </c>
       <c r="AA75" s="23"/>
     </row>
@@ -8355,11 +8355,11 @@
       </c>
       <c r="Y76" s="24">
         <f t="shared" si="2"/>
-        <v>2.4399999999999998E-2</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="Z76" s="24">
         <f t="shared" si="3"/>
-        <v>1.1446601367308322</v>
+        <v>87.984015072653364</v>
       </c>
       <c r="AA76" s="23"/>
     </row>
@@ -8438,11 +8438,11 @@
       </c>
       <c r="Y77" s="24">
         <f t="shared" si="2"/>
-        <v>2.8799999999999999E-2</v>
+        <v>2.7360000000000002</v>
       </c>
       <c r="Z77" s="24">
         <f t="shared" si="3"/>
-        <v>1.2693025713555461</v>
+        <v>92.425173484367278</v>
       </c>
       <c r="AA77" s="23"/>
     </row>
@@ -8521,11 +8521,11 @@
       </c>
       <c r="Y78" s="24">
         <f t="shared" si="2"/>
-        <v>2.7039999999999998E-2</v>
+        <v>2.5760000000000001</v>
       </c>
       <c r="Z78" s="24">
         <f t="shared" si="3"/>
-        <v>1.1960538319088938</v>
+        <v>88.680564925248774</v>
       </c>
       <c r="AA78" s="23"/>
     </row>
@@ -8604,11 +8604,11 @@
       </c>
       <c r="Y79" s="24">
         <f t="shared" si="2"/>
-        <v>3.04E-2</v>
+        <v>2.8960000000000004</v>
       </c>
       <c r="Z79" s="24">
         <f t="shared" si="3"/>
-        <v>1.5475275499206953</v>
+        <v>117.65353147965506</v>
       </c>
       <c r="AA79" s="23"/>
     </row>
@@ -8687,11 +8687,11 @@
       </c>
       <c r="Y80" s="24">
         <f t="shared" si="2"/>
-        <v>2.7200000000000002E-2</v>
+        <v>2.5760000000000001</v>
       </c>
       <c r="Z80" s="24">
         <f t="shared" si="3"/>
-        <v>1.323206627861683</v>
+        <v>100.21352531369709</v>
       </c>
       <c r="AA80" s="23"/>
     </row>
@@ -8770,11 +8770,11 @@
       </c>
       <c r="Y81" s="24">
         <f t="shared" si="2"/>
-        <v>2.7200000000000002E-2</v>
+        <v>2.6319999999999997</v>
       </c>
       <c r="Z81" s="24">
         <f t="shared" si="3"/>
-        <v>1.323206627861683</v>
+        <v>103.19336015132619</v>
       </c>
       <c r="AA81" s="23"/>
     </row>
@@ -8853,11 +8853,11 @@
       </c>
       <c r="Y82" s="24">
         <f t="shared" si="2"/>
-        <v>2.9679999999999995E-2</v>
+        <v>2.8239999999999998</v>
       </c>
       <c r="Z82" s="24">
         <f t="shared" si="3"/>
-        <v>1.4206683354712564</v>
+        <v>107.04538587814453</v>
       </c>
       <c r="AA82" s="23"/>
     </row>
@@ -8936,11 +8936,11 @@
       </c>
       <c r="Y83" s="24">
         <f t="shared" si="2"/>
-        <v>2.9600000000000001E-2</v>
+        <v>2.8239999999999998</v>
       </c>
       <c r="Z83" s="24">
         <f t="shared" si="3"/>
-        <v>1.4241684943078505</v>
+        <v>105.95775893708273</v>
       </c>
       <c r="AA83" s="23"/>
     </row>
@@ -9019,11 +9019,11 @@
       </c>
       <c r="Y84" s="24">
         <f t="shared" si="2"/>
-        <v>2.8799999999999999E-2</v>
+        <v>2.7439999999999998</v>
       </c>
       <c r="Z84" s="24">
         <f t="shared" si="3"/>
-        <v>1.2947185467067015</v>
+        <v>94.186819777247706</v>
       </c>
       <c r="AA84" s="23"/>
     </row>
@@ -9102,11 +9102,11 @@
       </c>
       <c r="Y85" s="24">
         <f t="shared" si="2"/>
-        <v>2.5600000000000001E-2</v>
+        <v>2.4239999999999999</v>
       </c>
       <c r="Z85" s="24">
         <f t="shared" si="3"/>
-        <v>1.1511148148605133</v>
+        <v>85.838859555450938</v>
       </c>
       <c r="AA85" s="23"/>
     </row>
@@ -9185,11 +9185,11 @@
       </c>
       <c r="Y86" s="24">
         <f t="shared" si="2"/>
-        <v>2.9600000000000001E-2</v>
+        <v>2.8239999999999998</v>
       </c>
       <c r="Z86" s="24">
         <f t="shared" si="3"/>
-        <v>1.4249209911949483</v>
+        <v>105.93778985574716</v>
       </c>
       <c r="AA86" s="23"/>
     </row>
@@ -9268,11 +9268,11 @@
       </c>
       <c r="Y87" s="24">
         <f t="shared" si="2"/>
-        <v>2.9520000000000005E-2</v>
+        <v>2.8239999999999998</v>
       </c>
       <c r="Z87" s="24">
         <f t="shared" si="3"/>
-        <v>1.4200459355596744</v>
+        <v>105.18655509189041</v>
       </c>
       <c r="AA87" s="23"/>
     </row>
@@ -9351,11 +9351,11 @@
       </c>
       <c r="Y88" s="24">
         <f t="shared" si="2"/>
-        <v>2.9520000000000005E-2</v>
+        <v>2.8239999999999998</v>
       </c>
       <c r="Z88" s="24">
         <f t="shared" si="3"/>
-        <v>1.4200459355596744</v>
+        <v>105.18655509189041</v>
       </c>
       <c r="AA88" s="23"/>
     </row>
@@ -9434,11 +9434,11 @@
       </c>
       <c r="Y89" s="24">
         <f t="shared" si="2"/>
-        <v>3.5200000000000002E-2</v>
+        <v>3.2960000000000003</v>
       </c>
       <c r="Z89" s="24">
         <f t="shared" si="3"/>
-        <v>1.9471897332109582</v>
+        <v>142.62303971910714</v>
       </c>
       <c r="AA89" s="23"/>
     </row>
@@ -9517,11 +9517,11 @@
       </c>
       <c r="Y90" s="24">
         <f t="shared" si="2"/>
-        <v>2.64E-2</v>
+        <v>2.5120000000000005</v>
       </c>
       <c r="Z90" s="24">
         <f t="shared" si="3"/>
-        <v>1.2277063582637904</v>
+        <v>91.804873918295812</v>
       </c>
       <c r="AA90" s="23"/>
     </row>
@@ -9600,11 +9600,11 @@
       </c>
       <c r="Y91" s="24">
         <f t="shared" si="2"/>
-        <v>2.64E-2</v>
+        <v>2.5120000000000005</v>
       </c>
       <c r="Z91" s="24">
         <f t="shared" si="3"/>
-        <v>1.2277063582637904</v>
+        <v>91.804873918295812</v>
       </c>
       <c r="AA91" s="23"/>
     </row>
@@ -9683,11 +9683,11 @@
       </c>
       <c r="Y92" s="24">
         <f t="shared" si="2"/>
-        <v>2.7200000000000002E-2</v>
+        <v>2.5839999999999996</v>
       </c>
       <c r="Z92" s="24">
         <f t="shared" si="3"/>
-        <v>1.3534011915712552</v>
+        <v>103.09278627181489</v>
       </c>
       <c r="AA92" s="23"/>
     </row>
@@ -9766,11 +9766,11 @@
       </c>
       <c r="Y93" s="24">
         <f t="shared" si="2"/>
-        <v>3.04E-2</v>
+        <v>2.8960000000000004</v>
       </c>
       <c r="Z93" s="24">
         <f t="shared" si="3"/>
-        <v>1.5464175460805192</v>
+        <v>116.24946121856236</v>
       </c>
       <c r="AA93" s="23"/>
     </row>
@@ -9849,11 +9849,11 @@
       </c>
       <c r="Y94" s="24">
         <f t="shared" si="2"/>
-        <v>2.8799999999999999E-2</v>
+        <v>2.76</v>
       </c>
       <c r="Z94" s="24">
         <f t="shared" si="3"/>
-        <v>1.465162847810638</v>
+        <v>112.23836495896302</v>
       </c>
       <c r="AA94" s="23"/>
     </row>
@@ -9932,11 +9932,11 @@
       </c>
       <c r="Y95" s="24">
         <f t="shared" si="2"/>
-        <v>2.8479999999999995E-2</v>
+        <v>2.7039999999999997</v>
       </c>
       <c r="Z95" s="24">
         <f t="shared" si="3"/>
-        <v>1.3933608489347031</v>
+        <v>104.1772452370266</v>
       </c>
       <c r="AA95" s="23"/>
     </row>
@@ -10015,11 +10015,11 @@
       </c>
       <c r="Y96" s="24">
         <f t="shared" si="2"/>
-        <v>2.7200000000000002E-2</v>
+        <v>2.6</v>
       </c>
       <c r="Z96" s="24">
         <f t="shared" si="3"/>
-        <v>1.4035388991158522</v>
+        <v>108.71455777364869</v>
       </c>
       <c r="AA96" s="23"/>
     </row>
@@ -10096,11 +10096,11 @@
       <c r="X97" s="11"/>
       <c r="Y97" s="24">
         <f t="shared" si="2"/>
-        <v>2.8799999999999999E-2</v>
+        <v>2.7520000000000007</v>
       </c>
       <c r="Z97" s="24">
         <f t="shared" si="3"/>
-        <v>1.5180025835551421</v>
+        <v>116.75482392641325</v>
       </c>
       <c r="AA97" s="23"/>
     </row>
@@ -10179,11 +10179,11 @@
       </c>
       <c r="Y98" s="24">
         <f t="shared" si="2"/>
-        <v>3.3599999999999998E-2</v>
+        <v>3.2160000000000002</v>
       </c>
       <c r="Z98" s="24">
         <f t="shared" si="3"/>
-        <v>1.7761255770335633</v>
+        <v>131.94355296027845</v>
       </c>
       <c r="AA98" s="23"/>
     </row>
@@ -10262,11 +10262,11 @@
       </c>
       <c r="Y99" s="24">
         <f t="shared" si="2"/>
-        <v>3.6799999999999999E-2</v>
+        <v>3.5279999999999996</v>
       </c>
       <c r="Z99" s="24">
         <f t="shared" si="3"/>
-        <v>2.1235319307183236</v>
+        <v>159.7506540684571</v>
       </c>
       <c r="AA99" s="23"/>
     </row>
@@ -10345,11 +10345,11 @@
       </c>
       <c r="Y100" s="24">
         <f t="shared" si="2"/>
-        <v>3.5200000000000002E-2</v>
+        <v>3.3760000000000003</v>
       </c>
       <c r="Z100" s="24">
         <f t="shared" si="3"/>
-        <v>2.0313647905625332</v>
+        <v>154.52997145198452</v>
       </c>
       <c r="AA100" s="23"/>
     </row>
@@ -10428,11 +10428,11 @@
       </c>
       <c r="Y101" s="24">
         <f t="shared" si="2"/>
-        <v>3.04E-2</v>
+        <v>2.8960000000000004</v>
       </c>
       <c r="Z101" s="24">
         <f t="shared" si="3"/>
-        <v>1.6461337907557503</v>
+        <v>125.08402416143586</v>
       </c>
       <c r="AA101" s="23"/>
     </row>
@@ -10511,11 +10511,11 @@
       </c>
       <c r="Y102" s="24">
         <f t="shared" si="2"/>
-        <v>3.2000000000000001E-2</v>
+        <v>3.0639999999999996</v>
       </c>
       <c r="Z102" s="24">
         <f t="shared" si="3"/>
-        <v>1.8035536108261718</v>
+        <v>138.08689350142947</v>
       </c>
       <c r="AA102" s="23"/>
     </row>
@@ -10594,11 +10594,11 @@
       </c>
       <c r="Y103" s="24">
         <f t="shared" si="2"/>
-        <v>3.3599999999999998E-2</v>
+        <v>3.2160000000000002</v>
       </c>
       <c r="Z103" s="24">
         <f t="shared" si="3"/>
-        <v>2.0163352722774897</v>
+        <v>154.61529979613448</v>
       </c>
       <c r="AA103" s="23"/>
     </row>
@@ -10677,11 +10677,11 @@
       </c>
       <c r="Y104" s="24">
         <f t="shared" si="2"/>
-        <v>3.3599999999999998E-2</v>
+        <v>3.2160000000000002</v>
       </c>
       <c r="Z104" s="24">
         <f t="shared" si="3"/>
-        <v>2.052110506892427</v>
+        <v>158.81694500903154</v>
       </c>
       <c r="AA104" s="23"/>
     </row>
@@ -10760,11 +10760,11 @@
       </c>
       <c r="Y105" s="24">
         <f t="shared" si="2"/>
-        <v>3.3599999999999998E-2</v>
+        <v>3.2160000000000002</v>
       </c>
       <c r="Z105" s="24">
         <f t="shared" si="3"/>
-        <v>2.052110506892427</v>
+        <v>158.81694500903154</v>
       </c>
       <c r="AA105" s="23"/>
     </row>
@@ -10843,11 +10843,11 @@
       </c>
       <c r="Y106" s="24">
         <f t="shared" si="2"/>
-        <v>3.8399999999999997E-2</v>
+        <v>3.6879999999999997</v>
       </c>
       <c r="Z106" s="24">
         <f t="shared" si="3"/>
-        <v>2.4244520097587592</v>
+        <v>185.27203252996148</v>
       </c>
       <c r="AA106" s="23"/>
     </row>
@@ -10926,11 +10926,11 @@
       </c>
       <c r="Y107" s="24">
         <f t="shared" si="2"/>
-        <v>3.6799999999999999E-2</v>
+        <v>3.5279999999999996</v>
       </c>
       <c r="Z107" s="24">
         <f t="shared" si="3"/>
-        <v>2.3141457784910688</v>
+        <v>177.32806316677832</v>
       </c>
       <c r="AA107" s="23"/>
     </row>
@@ -11009,11 +11009,11 @@
       </c>
       <c r="Y108" s="24">
         <f t="shared" si="2"/>
-        <v>3.5200000000000002E-2</v>
+        <v>3.3760000000000003</v>
       </c>
       <c r="Z108" s="24">
         <f t="shared" si="3"/>
-        <v>2.2136923183277979</v>
+        <v>171.3585617074101</v>
       </c>
       <c r="AA108" s="23"/>
     </row>
@@ -11092,11 +11092,11 @@
       </c>
       <c r="Y109" s="24">
         <f t="shared" si="2"/>
-        <v>3.6799999999999999E-2</v>
+        <v>3.536</v>
       </c>
       <c r="Z109" s="24">
         <f t="shared" si="3"/>
-        <v>2.419222495453432</v>
+        <v>187.99904554150569</v>
       </c>
       <c r="AA109" s="23"/>
     </row>
@@ -11175,11 +11175,11 @@
       </c>
       <c r="Y110" s="24">
         <f t="shared" si="2"/>
-        <v>3.6799999999999999E-2</v>
+        <v>3.536</v>
       </c>
       <c r="Z110" s="24">
         <f t="shared" si="3"/>
-        <v>2.447878305167126</v>
+        <v>190.48499267222391</v>
       </c>
       <c r="AA110" s="23"/>
     </row>
@@ -11258,11 +11258,11 @@
       </c>
       <c r="Y111" s="24">
         <f t="shared" si="2"/>
-        <v>3.6000000000000004E-2</v>
+        <v>3.4479999999999995</v>
       </c>
       <c r="Z111" s="24">
         <f t="shared" si="3"/>
-        <v>2.4086401586288031</v>
+        <v>187.73979999091887</v>
       </c>
       <c r="AA111" s="23"/>
     </row>
@@ -11341,11 +11341,11 @@
       </c>
       <c r="Y112" s="24">
         <f t="shared" si="2"/>
-        <v>4.24E-2</v>
+        <v>4.08</v>
       </c>
       <c r="Z112" s="24">
         <f t="shared" si="3"/>
-        <v>2.9131029402311768</v>
+        <v>221.79678860420884</v>
       </c>
       <c r="AA112" s="23"/>
     </row>
@@ -11424,11 +11424,11 @@
       </c>
       <c r="Y113" s="24">
         <f t="shared" si="2"/>
-        <v>3.9199999999999999E-2</v>
+        <v>3.76</v>
       </c>
       <c r="Z113" s="24">
         <f t="shared" si="3"/>
-        <v>2.6936048737737628</v>
+        <v>208.03559835110744</v>
       </c>
       <c r="AA113" s="23"/>
     </row>
@@ -11507,11 +11507,11 @@
       </c>
       <c r="Y114" s="24">
         <f t="shared" si="2"/>
-        <v>3.7600000000000001E-2</v>
+        <v>3.6</v>
       </c>
       <c r="Z114" s="24">
         <f t="shared" si="3"/>
-        <v>2.5838338720640843</v>
+        <v>200.91638264073939</v>
       </c>
       <c r="AA114" s="23"/>
     </row>
@@ -11590,11 +11590,11 @@
       </c>
       <c r="Y115" s="24">
         <f t="shared" si="2"/>
-        <v>3.7600000000000001E-2</v>
+        <v>3.6</v>
       </c>
       <c r="Z115" s="24">
         <f t="shared" si="3"/>
-        <v>2.5838338720640843</v>
+        <v>200.91638264073939</v>
       </c>
       <c r="AA115" s="23"/>
     </row>
@@ -11673,11 +11673,11 @@
       </c>
       <c r="Y116" s="24">
         <f t="shared" si="2"/>
-        <v>3.7600000000000001E-2</v>
+        <v>3.6</v>
       </c>
       <c r="Z116" s="24">
         <f t="shared" si="3"/>
-        <v>2.5838338720640843</v>
+        <v>200.91638264073939</v>
       </c>
       <c r="AA116" s="23"/>
     </row>
@@ -11756,11 +11756,11 @@
       </c>
       <c r="Y117" s="24">
         <f t="shared" si="2"/>
-        <v>3.6000000000000004E-2</v>
+        <v>3.4560000000000004</v>
       </c>
       <c r="Z117" s="24">
         <f t="shared" si="3"/>
-        <v>2.4769428421211881</v>
+        <v>194.129569124537</v>
       </c>
       <c r="AA117" s="23"/>
     </row>
@@ -11839,11 +11839,11 @@
       </c>
       <c r="Y118" s="24">
         <f t="shared" si="2"/>
-        <v>4.1599999999999998E-2</v>
+        <v>4</v>
       </c>
       <c r="Z118" s="24">
         <f t="shared" si="3"/>
-        <v>3.035591429110112</v>
+        <v>235.91117447039255</v>
       </c>
       <c r="AA118" s="23"/>
     </row>
@@ -11922,11 +11922,11 @@
       </c>
       <c r="Y119" s="24">
         <f t="shared" si="2"/>
-        <v>4.1599999999999998E-2</v>
+        <v>4</v>
       </c>
       <c r="Z119" s="24">
         <f t="shared" si="3"/>
-        <v>3.035591429110112</v>
+        <v>235.91117447039255</v>
       </c>
       <c r="AA119" s="23"/>
     </row>
@@ -12005,11 +12005,11 @@
       </c>
       <c r="Y120" s="24">
         <f t="shared" si="2"/>
-        <v>4.3200000000000002E-2</v>
+        <v>4.16</v>
       </c>
       <c r="Z120" s="24">
         <f t="shared" si="3"/>
-        <v>3.2534073815941009</v>
+        <v>252.1546001258655</v>
       </c>
       <c r="AA120" s="23"/>
     </row>
@@ -12088,11 +12088,11 @@
       </c>
       <c r="Y121" s="24">
         <f t="shared" si="2"/>
-        <v>4.6399999999999997E-2</v>
+        <v>4.4800000000000004</v>
       </c>
       <c r="Z121" s="24">
         <f t="shared" si="3"/>
-        <v>3.589962153282408</v>
+        <v>277.54948846553577</v>
       </c>
       <c r="AA121" s="23"/>
     </row>
@@ -12171,11 +12171,11 @@
       </c>
       <c r="Y122" s="24">
         <f t="shared" si="2"/>
-        <v>4.6399999999999997E-2</v>
+        <v>4.4800000000000004</v>
       </c>
       <c r="Z122" s="24">
         <f t="shared" si="3"/>
-        <v>3.589962153282408</v>
+        <v>277.54948846553577</v>
       </c>
       <c r="AA122" s="23"/>
     </row>
@@ -12254,11 +12254,11 @@
       </c>
       <c r="Y123" s="24">
         <f t="shared" si="2"/>
-        <v>4.6399999999999997E-2</v>
+        <v>4.4800000000000004</v>
       </c>
       <c r="Z123" s="24">
         <f t="shared" si="3"/>
-        <v>3.589962153282408</v>
+        <v>277.54948846553577</v>
       </c>
       <c r="AA123" s="23"/>
     </row>
@@ -12337,11 +12337,11 @@
       </c>
       <c r="Y124" s="24">
         <f t="shared" si="2"/>
-        <v>4.3200000000000002E-2</v>
+        <v>4.16</v>
       </c>
       <c r="Z124" s="24">
         <f t="shared" si="3"/>
-        <v>3.3427699468732324</v>
+        <v>261.68038931001598</v>
       </c>
       <c r="AA124" s="23"/>
     </row>
@@ -12420,11 +12420,11 @@
       </c>
       <c r="Y125" s="24">
         <f t="shared" si="2"/>
-        <v>4.3200000000000002E-2</v>
+        <v>4.16</v>
       </c>
       <c r="Z125" s="24">
         <f t="shared" si="3"/>
-        <v>3.3427699468732324</v>
+        <v>261.68038931001598</v>
       </c>
       <c r="AA125" s="23"/>
     </row>
@@ -12503,11 +12503,11 @@
       </c>
       <c r="Y126" s="24">
         <f t="shared" si="2"/>
-        <v>4.8000000000000001E-2</v>
+        <v>4.6399999999999997</v>
       </c>
       <c r="Z126" s="24">
         <f t="shared" si="3"/>
-        <v>3.9442473043821007</v>
+        <v>308.14050165913068</v>
       </c>
       <c r="AA126" s="23"/>
     </row>
@@ -12586,11 +12586,11 @@
       </c>
       <c r="Y127" s="24">
         <f t="shared" si="2"/>
-        <v>5.1200000000000002E-2</v>
+        <v>4.96</v>
       </c>
       <c r="Z127" s="24">
         <f t="shared" si="3"/>
-        <v>4.2386284735524011</v>
+        <v>327.0796986505178</v>
       </c>
       <c r="AA127" s="23"/>
     </row>
@@ -12669,11 +12669,11 @@
       </c>
       <c r="Y128" s="24">
         <f t="shared" si="2"/>
-        <v>4.6399999999999997E-2</v>
+        <v>4.4800000000000004</v>
       </c>
       <c r="Z128" s="24">
         <f t="shared" si="3"/>
-        <v>3.8418853420800558</v>
+        <v>301.79183048251247</v>
       </c>
       <c r="AA128" s="23"/>
     </row>
@@ -12752,11 +12752,11 @@
       </c>
       <c r="Y129" s="24">
         <f t="shared" si="2"/>
-        <v>4.9599999999999998E-2</v>
+        <v>4.8</v>
       </c>
       <c r="Z129" s="24">
         <f t="shared" si="3"/>
-        <v>4.2355409722930437</v>
+        <v>331.62912346125449</v>
       </c>
       <c r="AA129" s="23"/>
     </row>
@@ -12835,11 +12835,11 @@
       </c>
       <c r="Y130" s="24">
         <f t="shared" si="2"/>
-        <v>4.8000000000000001E-2</v>
+        <v>4.6399999999999997</v>
       </c>
       <c r="Z130" s="24">
         <f t="shared" si="3"/>
-        <v>4.099127916317892</v>
+        <v>322.25494332141375</v>
       </c>
       <c r="AA130" s="23"/>
     </row>
@@ -12917,12 +12917,12 @@
         <v>3.4</v>
       </c>
       <c r="Y131" s="24">
-        <f t="shared" ref="Y131:Y194" si="4">(0.32*(K131-V131))/200</f>
-        <v>5.7599999999999998E-2</v>
+        <f t="shared" ref="Y131:Y194" si="4">(32*(L131-V131))/200</f>
+        <v>5.5679999999999996</v>
       </c>
       <c r="Z131" s="24">
-        <f t="shared" ref="Z131:Z194" si="5">2.54*Y131*SQRT((K131-Y131)*(M131-Y131))</f>
-        <v>4.8866975315802605</v>
+        <f t="shared" ref="Z131:Z194" si="5">2.54*Y131*SQRT((L131-Y131)*(N131-Y131))</f>
+        <v>365.03766455181767</v>
       </c>
       <c r="AA131" s="23"/>
     </row>
@@ -13001,11 +13001,11 @@
       </c>
       <c r="Y132" s="24">
         <f t="shared" si="4"/>
-        <v>1.4800000000000001E-2</v>
+        <v>1.3919999999999999</v>
       </c>
       <c r="Z132" s="24">
         <f t="shared" si="5"/>
-        <v>0.30688032752563371</v>
+        <v>21.787439677901148</v>
       </c>
       <c r="AA132" s="23"/>
     </row>
@@ -13084,11 +13084,11 @@
       </c>
       <c r="Y133" s="24">
         <f t="shared" si="4"/>
-        <v>1.4800000000000001E-2</v>
+        <v>1.3919999999999999</v>
       </c>
       <c r="Z133" s="24">
         <f t="shared" si="5"/>
-        <v>0.30688032752563371</v>
+        <v>21.787439677901148</v>
       </c>
       <c r="AA133" s="23"/>
     </row>
@@ -13167,11 +13167,11 @@
       </c>
       <c r="Y134" s="24">
         <f t="shared" si="4"/>
-        <v>1.4319999999999999E-2</v>
+        <v>1.3519999999999999</v>
       </c>
       <c r="Z134" s="24">
         <f t="shared" si="5"/>
-        <v>0.3065187133631162</v>
+        <v>22.337233046106729</v>
       </c>
       <c r="AA134" s="23"/>
     </row>
@@ -13250,11 +13250,11 @@
       </c>
       <c r="Y135" s="24">
         <f t="shared" si="4"/>
-        <v>1.472E-2</v>
+        <v>1.3840000000000001</v>
       </c>
       <c r="Z135" s="24">
         <f t="shared" si="5"/>
-        <v>0.31283575311432982</v>
+        <v>22.249967303419993</v>
       </c>
       <c r="AA135" s="23"/>
     </row>
@@ -13333,11 +13333,11 @@
       </c>
       <c r="Y136" s="24">
         <f t="shared" si="4"/>
-        <v>1.472E-2</v>
+        <v>1.3840000000000001</v>
       </c>
       <c r="Z136" s="24">
         <f t="shared" si="5"/>
-        <v>0.31283575311432982</v>
+        <v>22.249967303419993</v>
       </c>
       <c r="AA136" s="23"/>
     </row>
@@ -13416,11 +13416,11 @@
       </c>
       <c r="Y137" s="24">
         <f t="shared" si="4"/>
-        <v>1.472E-2</v>
+        <v>1.3840000000000001</v>
       </c>
       <c r="Z137" s="24">
         <f t="shared" si="5"/>
-        <v>0.31283575311432982</v>
+        <v>22.249967303419993</v>
       </c>
       <c r="AA137" s="23"/>
     </row>
@@ -13499,11 +13499,11 @@
       </c>
       <c r="Y138" s="24">
         <f t="shared" si="4"/>
-        <v>1.472E-2</v>
+        <v>1.3840000000000001</v>
       </c>
       <c r="Z138" s="24">
         <f t="shared" si="5"/>
-        <v>0.31283575311432982</v>
+        <v>22.249967303419993</v>
       </c>
       <c r="AA138" s="23"/>
     </row>
@@ -13582,11 +13582,11 @@
       </c>
       <c r="Y139" s="24">
         <f t="shared" si="4"/>
-        <v>1.472E-2</v>
+        <v>1.3840000000000001</v>
       </c>
       <c r="Z139" s="24">
         <f t="shared" si="5"/>
-        <v>0.31283575311432982</v>
+        <v>22.249967303419993</v>
       </c>
       <c r="AA139" s="23"/>
     </row>
@@ -13665,11 +13665,11 @@
       </c>
       <c r="Y140" s="24">
         <f t="shared" si="4"/>
-        <v>1.472E-2</v>
+        <v>1.3840000000000001</v>
       </c>
       <c r="Z140" s="24">
         <f t="shared" si="5"/>
-        <v>0.31283575311432982</v>
+        <v>22.249967303419993</v>
       </c>
       <c r="AA140" s="23"/>
     </row>
@@ -13748,11 +13748,11 @@
       </c>
       <c r="Y141" s="24">
         <f t="shared" si="4"/>
-        <v>1.84E-2</v>
+        <v>1.7280000000000002</v>
       </c>
       <c r="Z141" s="24">
         <f t="shared" si="5"/>
-        <v>0.48975318386548444</v>
+        <v>34.804471813001733</v>
       </c>
       <c r="AA141" s="23"/>
     </row>
@@ -13831,11 +13831,11 @@
       </c>
       <c r="Y142" s="24">
         <f t="shared" si="4"/>
-        <v>1.84E-2</v>
+        <v>1.7280000000000002</v>
       </c>
       <c r="Z142" s="24">
         <f t="shared" si="5"/>
-        <v>0.48975318386548444</v>
+        <v>34.804471813001733</v>
       </c>
       <c r="AA142" s="23"/>
     </row>
@@ -13914,11 +13914,11 @@
       </c>
       <c r="Y143" s="24">
         <f t="shared" si="4"/>
-        <v>1.84E-2</v>
+        <v>1.7280000000000002</v>
       </c>
       <c r="Z143" s="24">
         <f t="shared" si="5"/>
-        <v>0.48975318386548444</v>
+        <v>34.804471813001733</v>
       </c>
       <c r="AA143" s="23"/>
     </row>
@@ -13997,11 +13997,11 @@
       </c>
       <c r="Y144" s="24">
         <f t="shared" si="4"/>
-        <v>1.84E-2</v>
+        <v>1.7280000000000002</v>
       </c>
       <c r="Z144" s="24">
         <f t="shared" si="5"/>
-        <v>0.48975318386548444</v>
+        <v>34.804471813001733</v>
       </c>
       <c r="AA144" s="23"/>
     </row>
@@ -14080,11 +14080,11 @@
       </c>
       <c r="Y145" s="24">
         <f t="shared" si="4"/>
-        <v>1.84E-2</v>
+        <v>1.7280000000000002</v>
       </c>
       <c r="Z145" s="24">
         <f t="shared" si="5"/>
-        <v>0.48975318386548444</v>
+        <v>34.804471813001733</v>
       </c>
       <c r="AA145" s="23"/>
     </row>
@@ -14163,11 +14163,11 @@
       </c>
       <c r="Y146" s="24">
         <f t="shared" si="4"/>
-        <v>1.84E-2</v>
+        <v>1.7280000000000002</v>
       </c>
       <c r="Z146" s="24">
         <f t="shared" si="5"/>
-        <v>0.48975318386548444</v>
+        <v>34.804471813001733</v>
       </c>
       <c r="AA146" s="23"/>
     </row>
@@ -14246,11 +14246,11 @@
       </c>
       <c r="Y147" s="24">
         <f t="shared" si="4"/>
-        <v>1.84E-2</v>
+        <v>1.7280000000000002</v>
       </c>
       <c r="Z147" s="24">
         <f t="shared" si="5"/>
-        <v>0.48975318386548444</v>
+        <v>34.804471813001733</v>
       </c>
       <c r="AA147" s="23"/>
     </row>
@@ -14329,11 +14329,11 @@
       </c>
       <c r="Y148" s="24">
         <f t="shared" si="4"/>
-        <v>1.84E-2</v>
+        <v>1.7280000000000002</v>
       </c>
       <c r="Z148" s="24">
         <f t="shared" si="5"/>
-        <v>0.48975318386548444</v>
+        <v>34.804471813001733</v>
       </c>
       <c r="AA148" s="23"/>
     </row>
@@ -14412,11 +14412,11 @@
       </c>
       <c r="Y149" s="24">
         <f t="shared" si="4"/>
-        <v>1.84E-2</v>
+        <v>1.7280000000000002</v>
       </c>
       <c r="Z149" s="24">
         <f t="shared" si="5"/>
-        <v>0.48975318386548444</v>
+        <v>34.804471813001733</v>
       </c>
       <c r="AA149" s="23"/>
     </row>
@@ -14495,11 +14495,11 @@
       </c>
       <c r="Y150" s="24">
         <f t="shared" si="4"/>
-        <v>1.84E-2</v>
+        <v>1.7280000000000002</v>
       </c>
       <c r="Z150" s="24">
         <f t="shared" si="5"/>
-        <v>0.48975318386548444</v>
+        <v>34.804471813001733</v>
       </c>
       <c r="AA150" s="23"/>
     </row>
@@ -14578,11 +14578,11 @@
       </c>
       <c r="Y151" s="24">
         <f t="shared" si="4"/>
-        <v>1.7280000000000004E-2</v>
+        <v>1.6480000000000001</v>
       </c>
       <c r="Z151" s="24">
         <f t="shared" si="5"/>
-        <v>0.44256044040076326</v>
+        <v>32.391747082713977</v>
       </c>
       <c r="AA151" s="23"/>
     </row>
@@ -14661,11 +14661,11 @@
       </c>
       <c r="Y152" s="24">
         <f t="shared" si="4"/>
-        <v>1.8960000000000005E-2</v>
+        <v>1.7839999999999998</v>
       </c>
       <c r="Z152" s="24">
         <f t="shared" si="5"/>
-        <v>0.56256386926127366</v>
+        <v>40.35026753532113</v>
       </c>
       <c r="AA152" s="23"/>
     </row>
@@ -14744,11 +14744,11 @@
       </c>
       <c r="Y153" s="24">
         <f t="shared" si="4"/>
-        <v>1.8960000000000005E-2</v>
+        <v>1.7839999999999998</v>
       </c>
       <c r="Z153" s="24">
         <f t="shared" si="5"/>
-        <v>0.56256386926127366</v>
+        <v>40.35026753532113</v>
       </c>
       <c r="AA153" s="23"/>
     </row>
@@ -14827,11 +14827,11 @@
       </c>
       <c r="Y154" s="24">
         <f t="shared" si="4"/>
-        <v>1.8960000000000005E-2</v>
+        <v>1.7839999999999998</v>
       </c>
       <c r="Z154" s="24">
         <f t="shared" si="5"/>
-        <v>0.56256386926127366</v>
+        <v>40.35026753532113</v>
       </c>
       <c r="AA154" s="23"/>
     </row>
@@ -14910,11 +14910,11 @@
       </c>
       <c r="Y155" s="24">
         <f t="shared" si="4"/>
-        <v>1.8960000000000005E-2</v>
+        <v>1.7839999999999998</v>
       </c>
       <c r="Z155" s="24">
         <f t="shared" si="5"/>
-        <v>0.56256386926127366</v>
+        <v>40.35026753532113</v>
       </c>
       <c r="AA155" s="23"/>
     </row>
@@ -14993,11 +14993,11 @@
       </c>
       <c r="Y156" s="24">
         <f t="shared" si="4"/>
-        <v>1.8960000000000005E-2</v>
+        <v>1.7839999999999998</v>
       </c>
       <c r="Z156" s="24">
         <f t="shared" si="5"/>
-        <v>0.56256386926127366</v>
+        <v>40.35026753532113</v>
       </c>
       <c r="AA156" s="23"/>
     </row>
@@ -15076,11 +15076,11 @@
       </c>
       <c r="Y157" s="24">
         <f t="shared" si="4"/>
-        <v>1.9360000000000002E-2</v>
+        <v>1.8160000000000003</v>
       </c>
       <c r="Z157" s="24">
         <f t="shared" si="5"/>
-        <v>0.59500775040789899</v>
+        <v>42.928231452773346</v>
       </c>
       <c r="AA157" s="23"/>
     </row>
@@ -15159,11 +15159,11 @@
       </c>
       <c r="Y158" s="24">
         <f t="shared" si="4"/>
-        <v>1.9360000000000002E-2</v>
+        <v>1.8160000000000003</v>
       </c>
       <c r="Z158" s="24">
         <f t="shared" si="5"/>
-        <v>0.59500775040789899</v>
+        <v>42.928231452773346</v>
       </c>
       <c r="AA158" s="23"/>
     </row>
@@ -15242,11 +15242,11 @@
       </c>
       <c r="Y159" s="24">
         <f t="shared" si="4"/>
-        <v>1.9360000000000002E-2</v>
+        <v>1.8160000000000003</v>
       </c>
       <c r="Z159" s="24">
         <f t="shared" si="5"/>
-        <v>0.59500775040789899</v>
+        <v>42.928231452773346</v>
       </c>
       <c r="AA159" s="23"/>
     </row>
@@ -15325,11 +15325,11 @@
       </c>
       <c r="Y160" s="24">
         <f t="shared" si="4"/>
-        <v>1.9360000000000002E-2</v>
+        <v>1.8160000000000003</v>
       </c>
       <c r="Z160" s="24">
         <f t="shared" si="5"/>
-        <v>0.59500775040789899</v>
+        <v>42.928231452773346</v>
       </c>
       <c r="AA160" s="23"/>
     </row>
@@ -15408,11 +15408,11 @@
       </c>
       <c r="Y161" s="24">
         <f t="shared" si="4"/>
-        <v>1.9360000000000002E-2</v>
+        <v>1.8160000000000003</v>
       </c>
       <c r="Z161" s="24">
         <f t="shared" si="5"/>
-        <v>0.59500775040789899</v>
+        <v>42.928231452773346</v>
       </c>
       <c r="AA161" s="23"/>
     </row>
@@ -15491,11 +15491,11 @@
       </c>
       <c r="Y162" s="24">
         <f t="shared" si="4"/>
-        <v>1.9360000000000002E-2</v>
+        <v>1.8160000000000003</v>
       </c>
       <c r="Z162" s="24">
         <f t="shared" si="5"/>
-        <v>0.59500775040789899</v>
+        <v>42.928231452773346</v>
       </c>
       <c r="AA162" s="23"/>
     </row>
@@ -15574,11 +15574,11 @@
       </c>
       <c r="Y163" s="24">
         <f t="shared" si="4"/>
-        <v>1.9360000000000002E-2</v>
+        <v>1.8160000000000003</v>
       </c>
       <c r="Z163" s="24">
         <f t="shared" si="5"/>
-        <v>0.59500775040789899</v>
+        <v>42.928231452773346</v>
       </c>
       <c r="AA163" s="23"/>
     </row>
@@ -15657,11 +15657,11 @@
       </c>
       <c r="Y164" s="24">
         <f t="shared" si="4"/>
-        <v>1.9360000000000002E-2</v>
+        <v>1.8160000000000003</v>
       </c>
       <c r="Z164" s="24">
         <f t="shared" si="5"/>
-        <v>0.59500775040789899</v>
+        <v>42.928231452773346</v>
       </c>
       <c r="AA164" s="23"/>
     </row>
@@ -15740,11 +15740,11 @@
       </c>
       <c r="Y165" s="24">
         <f t="shared" si="4"/>
-        <v>2.0400000000000001E-2</v>
+        <v>1.92</v>
       </c>
       <c r="Z165" s="24">
         <f t="shared" si="5"/>
-        <v>0.59243867539462269</v>
+        <v>41.622395205338393</v>
       </c>
       <c r="AA165" s="23"/>
     </row>
@@ -15823,11 +15823,11 @@
       </c>
       <c r="Y166" s="24">
         <f t="shared" si="4"/>
-        <v>2.0400000000000001E-2</v>
+        <v>1.92</v>
       </c>
       <c r="Z166" s="24">
         <f t="shared" si="5"/>
-        <v>0.59243867539462269</v>
+        <v>41.622395205338393</v>
       </c>
       <c r="AA166" s="23"/>
     </row>
@@ -15906,11 +15906,11 @@
       </c>
       <c r="Y167" s="24">
         <f t="shared" si="4"/>
-        <v>2.0400000000000001E-2</v>
+        <v>1.92</v>
       </c>
       <c r="Z167" s="24">
         <f t="shared" si="5"/>
-        <v>0.59243867539462269</v>
+        <v>41.622395205338393</v>
       </c>
       <c r="AA167" s="23"/>
     </row>
@@ -15989,11 +15989,11 @@
       </c>
       <c r="Y168" s="24">
         <f t="shared" si="4"/>
-        <v>2.0400000000000001E-2</v>
+        <v>1.92</v>
       </c>
       <c r="Z168" s="24">
         <f t="shared" si="5"/>
-        <v>0.59243867539462269</v>
+        <v>41.622395205338393</v>
       </c>
       <c r="AA168" s="23"/>
     </row>
@@ -16072,11 +16072,11 @@
       </c>
       <c r="Y169" s="24">
         <f t="shared" si="4"/>
-        <v>2.1375999999999999E-2</v>
+        <v>1.9360000000000002</v>
       </c>
       <c r="Z169" s="24">
         <f t="shared" si="5"/>
-        <v>0.69000434919177733</v>
+        <v>46.410906051157951</v>
       </c>
       <c r="AA169" s="23"/>
     </row>
@@ -16155,11 +16155,11 @@
       </c>
       <c r="Y170" s="24">
         <f t="shared" si="4"/>
-        <v>2.0560000000000002E-2</v>
+        <v>1.9360000000000002</v>
       </c>
       <c r="Z170" s="24">
         <f t="shared" si="5"/>
-        <v>0.64304980277452806</v>
+        <v>46.410906051157951</v>
       </c>
       <c r="AA170" s="23"/>
     </row>
@@ -16238,11 +16238,11 @@
       </c>
       <c r="Y171" s="24">
         <f t="shared" si="4"/>
-        <v>2.2000000000000002E-2</v>
+        <v>2.08</v>
       </c>
       <c r="Z171" s="24">
         <f t="shared" si="5"/>
-        <v>0.81268269535119897</v>
+        <v>59.618565295420254</v>
       </c>
       <c r="AA171" s="23"/>
     </row>
@@ -16321,11 +16321,11 @@
       </c>
       <c r="Y172" s="24">
         <f t="shared" si="4"/>
-        <v>2.2400000000000003E-2</v>
+        <v>2.1039999999999996</v>
       </c>
       <c r="Z172" s="24">
         <f t="shared" si="5"/>
-        <v>0.69406446468609728</v>
+        <v>49.47376606144784</v>
       </c>
       <c r="AA172" s="23"/>
     </row>
@@ -16404,11 +16404,11 @@
       </c>
       <c r="Y173" s="24">
         <f t="shared" si="4"/>
-        <v>2.1600000000000001E-2</v>
+        <v>2.04</v>
       </c>
       <c r="Z173" s="24">
         <f t="shared" si="5"/>
-        <v>0.68179982313861265</v>
+        <v>48.808939268607922</v>
       </c>
       <c r="AA173" s="23"/>
     </row>
@@ -16487,11 +16487,11 @@
       </c>
       <c r="Y174" s="24">
         <f t="shared" si="4"/>
-        <v>2.1600000000000001E-2</v>
+        <v>2.04</v>
       </c>
       <c r="Z174" s="24">
         <f t="shared" si="5"/>
-        <v>0.68179982313861265</v>
+        <v>48.808939268607922</v>
       </c>
       <c r="AA174" s="23"/>
     </row>
@@ -16570,11 +16570,11 @@
       </c>
       <c r="Y175" s="24">
         <f t="shared" si="4"/>
-        <v>2.5760000000000002E-2</v>
+        <v>2.4239999999999999</v>
       </c>
       <c r="Z175" s="24">
         <f t="shared" si="5"/>
-        <v>0.91318992433824275</v>
+        <v>64.5847131765657</v>
       </c>
       <c r="AA175" s="23"/>
     </row>
@@ -16653,11 +16653,11 @@
       </c>
       <c r="Y176" s="24">
         <f t="shared" si="4"/>
-        <v>2.504E-2</v>
+        <v>2.3519999999999999</v>
       </c>
       <c r="Z176" s="24">
         <f t="shared" si="5"/>
-        <v>0.9482729881058507</v>
+        <v>68.295807977939418</v>
       </c>
       <c r="AA176" s="23"/>
     </row>
@@ -16736,11 +16736,11 @@
       </c>
       <c r="Y177" s="24">
         <f t="shared" si="4"/>
-        <v>2.504E-2</v>
+        <v>2.3519999999999999</v>
       </c>
       <c r="Z177" s="24">
         <f t="shared" si="5"/>
-        <v>0.9482729881058507</v>
+        <v>68.295807977939418</v>
       </c>
       <c r="AA177" s="23"/>
     </row>
@@ -16819,11 +16819,11 @@
       </c>
       <c r="Y178" s="24">
         <f t="shared" si="4"/>
-        <v>2.504E-2</v>
+        <v>2.3519999999999999</v>
       </c>
       <c r="Z178" s="24">
         <f t="shared" si="5"/>
-        <v>0.9482729881058507</v>
+        <v>68.295807977939418</v>
       </c>
       <c r="AA178" s="23"/>
     </row>
@@ -16902,11 +16902,11 @@
       </c>
       <c r="Y179" s="24">
         <f t="shared" si="4"/>
-        <v>2.504E-2</v>
+        <v>2.3519999999999999</v>
       </c>
       <c r="Z179" s="24">
         <f t="shared" si="5"/>
-        <v>0.9482729881058507</v>
+        <v>68.295807977939418</v>
       </c>
       <c r="AA179" s="23"/>
     </row>
@@ -16985,11 +16985,11 @@
       </c>
       <c r="Y180" s="24">
         <f t="shared" si="4"/>
-        <v>2.504E-2</v>
+        <v>2.3519999999999999</v>
       </c>
       <c r="Z180" s="24">
         <f t="shared" si="5"/>
-        <v>0.9482729881058507</v>
+        <v>68.295807977939418</v>
       </c>
       <c r="AA180" s="23"/>
     </row>
@@ -17068,11 +17068,11 @@
       </c>
       <c r="Y181" s="24">
         <f t="shared" si="4"/>
-        <v>2.504E-2</v>
+        <v>2.3519999999999999</v>
       </c>
       <c r="Z181" s="24">
         <f t="shared" si="5"/>
-        <v>0.9482729881058507</v>
+        <v>68.295807977939418</v>
       </c>
       <c r="AA181" s="23"/>
     </row>
@@ -17149,11 +17149,11 @@
       <c r="X182" s="11"/>
       <c r="Y182" s="24">
         <f t="shared" si="4"/>
-        <v>2.504E-2</v>
+        <v>2.3519999999999999</v>
       </c>
       <c r="Z182" s="24">
         <f t="shared" si="5"/>
-        <v>0.9482729881058507</v>
+        <v>68.295807977939418</v>
       </c>
       <c r="AA182" s="23"/>
     </row>
@@ -17232,11 +17232,11 @@
       </c>
       <c r="Y183" s="24">
         <f t="shared" si="4"/>
-        <v>2.4319999999999998E-2</v>
+        <v>2.3680000000000003</v>
       </c>
       <c r="Z183" s="24">
         <f t="shared" si="5"/>
-        <v>0.9735989970154969</v>
+        <v>75.393372946356408</v>
       </c>
       <c r="AA183" s="23"/>
     </row>
@@ -17315,11 +17315,11 @@
       </c>
       <c r="Y184" s="24">
         <f t="shared" si="4"/>
-        <v>2.6239999999999996E-2</v>
+        <v>2.464</v>
       </c>
       <c r="Z184" s="24">
         <f t="shared" si="5"/>
-        <v>0.95746086551577214</v>
+        <v>67.186886595905776</v>
       </c>
       <c r="AA184" s="23"/>
     </row>
@@ -17398,11 +17398,11 @@
       </c>
       <c r="Y185" s="24">
         <f t="shared" si="4"/>
-        <v>2.5920000000000002E-2</v>
+        <v>2.464</v>
       </c>
       <c r="Z185" s="24">
         <f t="shared" si="5"/>
-        <v>1.0756280257684685</v>
+        <v>79.899458594708889</v>
       </c>
       <c r="AA185" s="23"/>
     </row>
@@ -17481,11 +17481,11 @@
       </c>
       <c r="Y186" s="24">
         <f t="shared" si="4"/>
-        <v>2.6080000000000002E-2</v>
+        <v>2.464</v>
       </c>
       <c r="Z186" s="24">
         <f t="shared" si="5"/>
-        <v>1.0784373920483092</v>
+        <v>79.285876647815087</v>
       </c>
       <c r="AA186" s="23"/>
     </row>
@@ -17564,11 +17564,11 @@
       </c>
       <c r="Y187" s="24">
         <f t="shared" si="4"/>
-        <v>3.2320000000000008E-2</v>
+        <v>3.04</v>
       </c>
       <c r="Z187" s="24">
         <f t="shared" si="5"/>
-        <v>1.5559528025489098</v>
+        <v>111.51808357058194</v>
       </c>
       <c r="AA187" s="23"/>
     </row>
@@ -17647,11 +17647,11 @@
       </c>
       <c r="Y188" s="24">
         <f t="shared" si="4"/>
-        <v>3.5920000000000007E-2</v>
+        <v>3.44</v>
       </c>
       <c r="Z188" s="24">
         <f t="shared" si="5"/>
-        <v>2.0163119904334339</v>
+        <v>149.19400188372703</v>
       </c>
       <c r="AA188" s="23"/>
     </row>
@@ -17730,11 +17730,11 @@
       </c>
       <c r="Y189" s="24">
         <f t="shared" si="4"/>
-        <v>3.5920000000000007E-2</v>
+        <v>3.44</v>
       </c>
       <c r="Z189" s="24">
         <f t="shared" si="5"/>
-        <v>2.0163119904334339</v>
+        <v>149.19400188372703</v>
       </c>
       <c r="AA189" s="23"/>
     </row>
@@ -17813,11 +17813,11 @@
       </c>
       <c r="Y190" s="24">
         <f t="shared" si="4"/>
-        <v>3.8879999999999998E-2</v>
+        <v>3.7360000000000002</v>
       </c>
       <c r="Z190" s="24">
         <f t="shared" si="5"/>
-        <v>2.2770058904946437</v>
+        <v>170.52114314268985</v>
       </c>
       <c r="AA190" s="23"/>
     </row>
@@ -17896,11 +17896,11 @@
       </c>
       <c r="Y191" s="24">
         <f t="shared" si="4"/>
-        <v>4.224E-2</v>
+        <v>4.0640000000000001</v>
       </c>
       <c r="Z191" s="24">
         <f t="shared" si="5"/>
-        <v>2.7275298264568173</v>
+        <v>202.78113995653919</v>
       </c>
       <c r="AA191" s="23"/>
     </row>
@@ -17979,11 +17979,11 @@
       </c>
       <c r="Y192" s="24">
         <f t="shared" si="4"/>
-        <v>4.224E-2</v>
+        <v>4.0640000000000001</v>
       </c>
       <c r="Z192" s="24">
         <f t="shared" si="5"/>
-        <v>2.7275298264568173</v>
+        <v>202.78113995653919</v>
       </c>
       <c r="AA192" s="23"/>
     </row>
@@ -18062,11 +18062,11 @@
       </c>
       <c r="Y193" s="24">
         <f t="shared" si="4"/>
-        <v>4.6479999999999994E-2</v>
+        <v>4.4320000000000004</v>
       </c>
       <c r="Z193" s="24">
         <f t="shared" si="5"/>
-        <v>3.299262480999221</v>
+        <v>243.53116707984566</v>
       </c>
       <c r="AA193" s="23"/>
     </row>
@@ -18145,11 +18145,11 @@
       </c>
       <c r="Y194" s="24">
         <f t="shared" si="4"/>
-        <v>5.7599999999999998E-2</v>
+        <v>5.4879999999999995</v>
       </c>
       <c r="Z194" s="24">
         <f t="shared" si="5"/>
-        <v>4.8989342403716964</v>
+        <v>360.62972683451426</v>
       </c>
       <c r="AA194" s="23"/>
     </row>
@@ -18227,12 +18227,12 @@
         <v>0.8</v>
       </c>
       <c r="Y195" s="24">
-        <f t="shared" ref="Y195:Y258" si="6">(0.32*(K195-V195))/200</f>
-        <v>1.2800000000000001E-2</v>
+        <f t="shared" ref="Y195:Y258" si="6">(32*(L195-V195))/200</f>
+        <v>1.2</v>
       </c>
       <c r="Z195" s="24">
-        <f t="shared" ref="Z195:Z258" si="7">2.54*Y195*SQRT((K195-Y195)*(M195-Y195))</f>
-        <v>0.27383212234163717</v>
+        <f t="shared" ref="Z195:Z258" si="7">2.54*Y195*SQRT((L195-Y195)*(N195-Y195))</f>
+        <v>19.796754133948323</v>
       </c>
       <c r="AA195" s="23"/>
     </row>
@@ -18311,11 +18311,11 @@
       </c>
       <c r="Y196" s="24">
         <f t="shared" si="6"/>
-        <v>1.2800000000000001E-2</v>
+        <v>1.2</v>
       </c>
       <c r="Z196" s="24">
         <f t="shared" si="7"/>
-        <v>0.27383212234163717</v>
+        <v>19.796754133948323</v>
       </c>
       <c r="AA196" s="23"/>
     </row>
@@ -18394,11 +18394,11 @@
       </c>
       <c r="Y197" s="24">
         <f t="shared" si="6"/>
-        <v>1.2800000000000001E-2</v>
+        <v>1.2</v>
       </c>
       <c r="Z197" s="24">
         <f t="shared" si="7"/>
-        <v>0.27383212234163717</v>
+        <v>19.796754133948323</v>
       </c>
       <c r="AA197" s="23"/>
     </row>
@@ -18477,11 +18477,11 @@
       </c>
       <c r="Y198" s="24">
         <f t="shared" si="6"/>
-        <v>1.2800000000000001E-2</v>
+        <v>1.2</v>
       </c>
       <c r="Z198" s="24">
         <f t="shared" si="7"/>
-        <v>0.27383212234163717</v>
+        <v>19.796754133948323</v>
       </c>
       <c r="AA198" s="23"/>
     </row>
@@ -18560,11 +18560,11 @@
       </c>
       <c r="Y199" s="24">
         <f t="shared" si="6"/>
-        <v>1.2800000000000001E-2</v>
+        <v>1.2</v>
       </c>
       <c r="Z199" s="24">
         <f t="shared" si="7"/>
-        <v>0.27383212234163717</v>
+        <v>19.796754133948323</v>
       </c>
       <c r="AA199" s="23"/>
     </row>
@@ -18643,11 +18643,11 @@
       </c>
       <c r="Y200" s="24">
         <f t="shared" si="6"/>
-        <v>1.2800000000000001E-2</v>
+        <v>1.2</v>
       </c>
       <c r="Z200" s="24">
         <f t="shared" si="7"/>
-        <v>0.27383212234163717</v>
+        <v>19.796754133948323</v>
       </c>
       <c r="AA200" s="23"/>
     </row>
@@ -18726,11 +18726,11 @@
       </c>
       <c r="Y201" s="24">
         <f t="shared" si="6"/>
-        <v>1.2800000000000001E-2</v>
+        <v>1.2</v>
       </c>
       <c r="Z201" s="24">
         <f t="shared" si="7"/>
-        <v>0.27383212234163717</v>
+        <v>19.796754133948323</v>
       </c>
       <c r="AA201" s="23"/>
     </row>
@@ -18809,11 +18809,11 @@
       </c>
       <c r="Y202" s="24">
         <f t="shared" si="6"/>
-        <v>1.2639999999999998E-2</v>
+        <v>1.1839999999999997</v>
       </c>
       <c r="Z202" s="24">
         <f t="shared" si="7"/>
-        <v>0.28603306937814427</v>
+        <v>20.856568694432379</v>
       </c>
       <c r="AA202" s="23"/>
     </row>
@@ -18892,11 +18892,11 @@
       </c>
       <c r="Y203" s="24">
         <f t="shared" si="6"/>
-        <v>1.2639999999999998E-2</v>
+        <v>1.1839999999999997</v>
       </c>
       <c r="Z203" s="24">
         <f t="shared" si="7"/>
-        <v>0.28603306937814427</v>
+        <v>20.856568694432379</v>
       </c>
       <c r="AA203" s="23"/>
     </row>
@@ -18975,11 +18975,11 @@
       </c>
       <c r="Y204" s="24">
         <f t="shared" si="6"/>
-        <v>1.2639999999999998E-2</v>
+        <v>1.1839999999999997</v>
       </c>
       <c r="Z204" s="24">
         <f t="shared" si="7"/>
-        <v>0.28603306937814427</v>
+        <v>20.856568694432379</v>
       </c>
       <c r="AA204" s="23"/>
     </row>
@@ -19058,11 +19058,11 @@
       </c>
       <c r="Y205" s="24">
         <f t="shared" si="6"/>
-        <v>1.2639999999999998E-2</v>
+        <v>1.1839999999999997</v>
       </c>
       <c r="Z205" s="24">
         <f t="shared" si="7"/>
-        <v>0.28603306937814427</v>
+        <v>20.856568694432379</v>
       </c>
       <c r="AA205" s="23"/>
     </row>
@@ -19141,11 +19141,11 @@
       </c>
       <c r="Y206" s="24">
         <f t="shared" si="6"/>
-        <v>1.2639999999999998E-2</v>
+        <v>1.1839999999999997</v>
       </c>
       <c r="Z206" s="24">
         <f t="shared" si="7"/>
-        <v>0.28603306937814427</v>
+        <v>20.856568694432379</v>
       </c>
       <c r="AA206" s="23"/>
     </row>
@@ -19224,11 +19224,11 @@
       </c>
       <c r="Y207" s="24">
         <f t="shared" si="6"/>
-        <v>1.2639999999999998E-2</v>
+        <v>1.1839999999999997</v>
       </c>
       <c r="Z207" s="24">
         <f t="shared" si="7"/>
-        <v>0.28603306937814427</v>
+        <v>20.856568694432379</v>
       </c>
       <c r="AA207" s="23"/>
     </row>
@@ -19307,11 +19307,11 @@
       </c>
       <c r="Y208" s="24">
         <f t="shared" si="6"/>
-        <v>1.2639999999999998E-2</v>
+        <v>1.1839999999999997</v>
       </c>
       <c r="Z208" s="24">
         <f t="shared" si="7"/>
-        <v>0.28603306937814427</v>
+        <v>20.856568694432379</v>
       </c>
       <c r="AA208" s="23"/>
     </row>
@@ -19390,11 +19390,11 @@
       </c>
       <c r="Y209" s="24">
         <f t="shared" si="6"/>
-        <v>1.2639999999999998E-2</v>
+        <v>1.1839999999999997</v>
       </c>
       <c r="Z209" s="24">
         <f t="shared" si="7"/>
-        <v>0.28603306937814427</v>
+        <v>20.856568694432379</v>
       </c>
       <c r="AA209" s="23"/>
     </row>
@@ -19473,11 +19473,11 @@
       </c>
       <c r="Y210" s="24">
         <f t="shared" si="6"/>
-        <v>1.584E-2</v>
+        <v>1.4880000000000002</v>
       </c>
       <c r="Z210" s="24">
         <f t="shared" si="7"/>
-        <v>0.40743475329869688</v>
+        <v>29.534946287772499</v>
       </c>
       <c r="AA210" s="23"/>
     </row>
@@ -19556,11 +19556,11 @@
       </c>
       <c r="Y211" s="24">
         <f t="shared" si="6"/>
-        <v>1.584E-2</v>
+        <v>1.4880000000000002</v>
       </c>
       <c r="Z211" s="24">
         <f t="shared" si="7"/>
-        <v>0.40743475329869688</v>
+        <v>29.534946287772499</v>
       </c>
       <c r="AA211" s="23"/>
     </row>
@@ -19639,11 +19639,11 @@
       </c>
       <c r="Y212" s="24">
         <f t="shared" si="6"/>
-        <v>1.584E-2</v>
+        <v>1.4880000000000002</v>
       </c>
       <c r="Z212" s="24">
         <f t="shared" si="7"/>
-        <v>0.40743475329869688</v>
+        <v>29.534946287772499</v>
       </c>
       <c r="AA212" s="23"/>
     </row>
@@ -19722,11 +19722,11 @@
       </c>
       <c r="Y213" s="24">
         <f t="shared" si="6"/>
-        <v>1.584E-2</v>
+        <v>1.4880000000000002</v>
       </c>
       <c r="Z213" s="24">
         <f t="shared" si="7"/>
-        <v>0.40743475329869688</v>
+        <v>29.534946287772499</v>
       </c>
       <c r="AA213" s="23"/>
     </row>
@@ -19805,11 +19805,11 @@
       </c>
       <c r="Y214" s="24">
         <f t="shared" si="6"/>
-        <v>1.584E-2</v>
+        <v>1.4880000000000002</v>
       </c>
       <c r="Z214" s="24">
         <f t="shared" si="7"/>
-        <v>0.40743475329869688</v>
+        <v>29.534946287772499</v>
       </c>
       <c r="AA214" s="23"/>
     </row>
@@ -19888,11 +19888,11 @@
       </c>
       <c r="Y215" s="24">
         <f t="shared" si="6"/>
-        <v>1.584E-2</v>
+        <v>1.4880000000000002</v>
       </c>
       <c r="Z215" s="24">
         <f t="shared" si="7"/>
-        <v>0.40743475329869688</v>
+        <v>29.534946287772499</v>
       </c>
       <c r="AA215" s="23"/>
     </row>
@@ -19971,11 +19971,11 @@
       </c>
       <c r="Y216" s="24">
         <f t="shared" si="6"/>
-        <v>1.584E-2</v>
+        <v>1.4880000000000002</v>
       </c>
       <c r="Z216" s="24">
         <f t="shared" si="7"/>
-        <v>0.40743475329869688</v>
+        <v>29.534946287772499</v>
       </c>
       <c r="AA216" s="23"/>
     </row>
@@ -20054,11 +20054,11 @@
       </c>
       <c r="Y217" s="24">
         <f t="shared" si="6"/>
-        <v>1.2800000000000001E-2</v>
+        <v>1.2</v>
       </c>
       <c r="Z217" s="24">
         <f t="shared" si="7"/>
-        <v>0.30617813090740587</v>
+        <v>22.395023139974651</v>
       </c>
       <c r="AA217" s="23"/>
     </row>
@@ -20137,11 +20137,11 @@
       </c>
       <c r="Y218" s="24">
         <f t="shared" si="6"/>
-        <v>1.6239999999999997E-2</v>
+        <v>1.528</v>
       </c>
       <c r="Z218" s="24">
         <f t="shared" si="7"/>
-        <v>0.4626634643361815</v>
+        <v>33.951279096379743</v>
       </c>
       <c r="AA218" s="23"/>
     </row>
@@ -20220,11 +20220,11 @@
       </c>
       <c r="Y219" s="24">
         <f t="shared" si="6"/>
-        <v>1.6239999999999997E-2</v>
+        <v>1.528</v>
       </c>
       <c r="Z219" s="24">
         <f t="shared" si="7"/>
-        <v>0.48311453285449396</v>
+        <v>35.606623414776436</v>
       </c>
       <c r="AA219" s="23"/>
     </row>
@@ -20303,11 +20303,11 @@
       </c>
       <c r="Y220" s="24">
         <f t="shared" si="6"/>
-        <v>1.6239999999999997E-2</v>
+        <v>1.528</v>
       </c>
       <c r="Z220" s="24">
         <f t="shared" si="7"/>
-        <v>0.48311453285449396</v>
+        <v>35.606623414776436</v>
       </c>
       <c r="AA220" s="23"/>
     </row>
@@ -20386,11 +20386,11 @@
       </c>
       <c r="Y221" s="24">
         <f t="shared" si="6"/>
-        <v>1.8800000000000001E-2</v>
+        <v>1.768</v>
       </c>
       <c r="Z221" s="24">
         <f t="shared" si="7"/>
-        <v>0.62376018413300638</v>
+        <v>45.873517870292176</v>
       </c>
       <c r="AA221" s="23"/>
     </row>
@@ -20469,11 +20469,11 @@
       </c>
       <c r="Y222" s="24">
         <f t="shared" si="6"/>
-        <v>1.8800000000000001E-2</v>
+        <v>1.768</v>
       </c>
       <c r="Z222" s="24">
         <f t="shared" si="7"/>
-        <v>0.62376018413300638</v>
+        <v>45.873517870292176</v>
       </c>
       <c r="AA222" s="23"/>
     </row>
@@ -20552,11 +20552,11 @@
       </c>
       <c r="Y223" s="24">
         <f t="shared" si="6"/>
-        <v>1.8800000000000001E-2</v>
+        <v>1.768</v>
       </c>
       <c r="Z223" s="24">
         <f t="shared" si="7"/>
-        <v>0.62376018413300638</v>
+        <v>45.873517870292176</v>
       </c>
       <c r="AA223" s="23"/>
     </row>
@@ -20635,11 +20635,11 @@
       </c>
       <c r="Y224" s="24">
         <f t="shared" si="6"/>
-        <v>2.2639999999999997E-2</v>
+        <v>2.1280000000000001</v>
       </c>
       <c r="Z224" s="24">
         <f t="shared" si="7"/>
-        <v>0.78010338744320717</v>
+        <v>56.011332597563332</v>
       </c>
       <c r="AA224" s="23"/>
     </row>
@@ -20718,11 +20718,11 @@
       </c>
       <c r="Y225" s="24">
         <f t="shared" si="6"/>
-        <v>2.2639999999999997E-2</v>
+        <v>2.1280000000000001</v>
       </c>
       <c r="Z225" s="24">
         <f t="shared" si="7"/>
-        <v>0.78010338744320717</v>
+        <v>56.011332597563332</v>
       </c>
       <c r="AA225" s="23"/>
     </row>
@@ -20801,11 +20801,11 @@
       </c>
       <c r="Y226" s="24">
         <f t="shared" si="6"/>
-        <v>2.2639999999999997E-2</v>
+        <v>2.1280000000000001</v>
       </c>
       <c r="Z226" s="24">
         <f t="shared" si="7"/>
-        <v>0.78010338744320717</v>
+        <v>56.011332597563332</v>
       </c>
       <c r="AA226" s="23"/>
     </row>
@@ -20884,11 +20884,11 @@
       </c>
       <c r="Y227" s="24">
         <f t="shared" si="6"/>
-        <v>2.2639999999999997E-2</v>
+        <v>2.1280000000000001</v>
       </c>
       <c r="Z227" s="24">
         <f t="shared" si="7"/>
-        <v>0.78010338744320717</v>
+        <v>56.011332597563332</v>
       </c>
       <c r="AA227" s="23"/>
     </row>
@@ -20967,11 +20967,11 @@
       </c>
       <c r="Y228" s="24">
         <f t="shared" si="6"/>
-        <v>2.2639999999999997E-2</v>
+        <v>2.1280000000000001</v>
       </c>
       <c r="Z228" s="24">
         <f t="shared" si="7"/>
-        <v>0.78010338744320717</v>
+        <v>56.011332597563332</v>
       </c>
       <c r="AA228" s="23"/>
     </row>
@@ -21050,11 +21050,11 @@
       </c>
       <c r="Y229" s="24">
         <f t="shared" si="6"/>
-        <v>2.2639999999999997E-2</v>
+        <v>2.1280000000000001</v>
       </c>
       <c r="Z229" s="24">
         <f t="shared" si="7"/>
-        <v>0.78010338744320717</v>
+        <v>56.011332597563332</v>
       </c>
       <c r="AA229" s="23"/>
     </row>
@@ -21133,11 +21133,11 @@
       </c>
       <c r="Y230" s="24">
         <f t="shared" si="6"/>
-        <v>2.2639999999999997E-2</v>
+        <v>2.1280000000000001</v>
       </c>
       <c r="Z230" s="24">
         <f t="shared" si="7"/>
-        <v>0.78010338744320717</v>
+        <v>56.011332597563332</v>
       </c>
       <c r="AA230" s="23"/>
     </row>
@@ -21216,11 +21216,11 @@
       </c>
       <c r="Y231" s="24">
         <f t="shared" si="6"/>
-        <v>2.2639999999999997E-2</v>
+        <v>2.1280000000000001</v>
       </c>
       <c r="Z231" s="24">
         <f t="shared" si="7"/>
-        <v>0.78010338744320717</v>
+        <v>56.011332597563332</v>
       </c>
       <c r="AA231" s="23"/>
     </row>
@@ -21299,11 +21299,11 @@
       </c>
       <c r="Y232" s="24">
         <f t="shared" si="6"/>
-        <v>2.2639999999999997E-2</v>
+        <v>2.1280000000000001</v>
       </c>
       <c r="Z232" s="24">
         <f t="shared" si="7"/>
-        <v>0.78010338744320717</v>
+        <v>56.011332597563332</v>
       </c>
       <c r="AA232" s="23"/>
     </row>
@@ -21382,11 +21382,11 @@
       </c>
       <c r="Y233" s="24">
         <f t="shared" si="6"/>
-        <v>2.1439999999999997E-2</v>
+        <v>2.016</v>
       </c>
       <c r="Z233" s="24">
         <f t="shared" si="7"/>
-        <v>0.79726874877913567</v>
+        <v>58.911901898299661</v>
       </c>
       <c r="AA233" s="23"/>
     </row>
@@ -21465,11 +21465,11 @@
       </c>
       <c r="Y234" s="24">
         <f t="shared" si="6"/>
-        <v>2.3199999999999998E-2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="Z234" s="24">
         <f t="shared" si="7"/>
-        <v>0.8488187990260776</v>
+        <v>62.473240211789893</v>
       </c>
       <c r="AA234" s="23"/>
     </row>
@@ -21548,11 +21548,11 @@
       </c>
       <c r="Y235" s="24">
         <f t="shared" si="6"/>
-        <v>2.3199999999999998E-2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="Z235" s="24">
         <f t="shared" si="7"/>
-        <v>0.8488187990260776</v>
+        <v>62.473240211789893</v>
       </c>
       <c r="AA235" s="23"/>
     </row>
@@ -21631,11 +21631,11 @@
       </c>
       <c r="Y236" s="24">
         <f t="shared" si="6"/>
-        <v>2.4479999999999998E-2</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="Z236" s="24">
         <f t="shared" si="7"/>
-        <v>1.0192667078481188</v>
+        <v>75.127168303769949</v>
       </c>
       <c r="AA236" s="23"/>
     </row>
@@ -21714,11 +21714,11 @@
       </c>
       <c r="Y237" s="24">
         <f t="shared" si="6"/>
-        <v>2.4E-2</v>
+        <v>2.2480000000000002</v>
       </c>
       <c r="Z237" s="24">
         <f t="shared" si="7"/>
-        <v>1.0108024198041285</v>
+        <v>74.371089660219525</v>
       </c>
       <c r="AA237" s="23"/>
     </row>
@@ -21797,11 +21797,11 @@
       </c>
       <c r="Y238" s="24">
         <f t="shared" si="6"/>
-        <v>3.1039999999999998E-2</v>
+        <v>2.9760000000000004</v>
       </c>
       <c r="Z238" s="24">
         <f t="shared" si="7"/>
-        <v>1.5288633982058604</v>
+        <v>113.60041994542432</v>
       </c>
       <c r="AA238" s="23"/>
     </row>
@@ -21880,11 +21880,11 @@
       </c>
       <c r="Y239" s="24">
         <f t="shared" si="6"/>
-        <v>3.0560000000000004E-2</v>
+        <v>2.88</v>
       </c>
       <c r="Z239" s="24">
         <f t="shared" si="7"/>
-        <v>1.5567633149754683</v>
+        <v>114.84407373342874</v>
       </c>
       <c r="AA239" s="23"/>
     </row>
@@ -21963,11 +21963,11 @@
       </c>
       <c r="Y240" s="24">
         <f t="shared" si="6"/>
-        <v>3.0560000000000004E-2</v>
+        <v>2.88</v>
       </c>
       <c r="Z240" s="24">
         <f t="shared" si="7"/>
-        <v>1.5567633149754683</v>
+        <v>114.84407373342874</v>
       </c>
       <c r="AA240" s="23"/>
     </row>
@@ -22046,11 +22046,11 @@
       </c>
       <c r="Y241" s="24">
         <f t="shared" si="6"/>
-        <v>3.56E-2</v>
+        <v>3.4079999999999995</v>
       </c>
       <c r="Z241" s="24">
         <f t="shared" si="7"/>
-        <v>2.0126740551672651</v>
+        <v>149.85014132434742</v>
       </c>
       <c r="AA241" s="23"/>
     </row>
@@ -22129,11 +22129,11 @@
       </c>
       <c r="Y242" s="24">
         <f t="shared" si="6"/>
-        <v>3.56E-2</v>
+        <v>3.4079999999999995</v>
       </c>
       <c r="Z242" s="24">
         <f t="shared" si="7"/>
-        <v>2.0126740551672651</v>
+        <v>149.85014132434742</v>
       </c>
       <c r="AA242" s="23"/>
     </row>
@@ -22212,11 +22212,11 @@
       </c>
       <c r="Y243" s="24">
         <f t="shared" si="6"/>
-        <v>3.56E-2</v>
+        <v>3.4079999999999995</v>
       </c>
       <c r="Z243" s="24">
         <f t="shared" si="7"/>
-        <v>2.0126740551672651</v>
+        <v>149.85014132434742</v>
       </c>
       <c r="AA243" s="23"/>
     </row>
@@ -22295,11 +22295,11 @@
       </c>
       <c r="Y244" s="24">
         <f t="shared" si="6"/>
-        <v>3.56E-2</v>
+        <v>3.4079999999999995</v>
       </c>
       <c r="Z244" s="24">
         <f t="shared" si="7"/>
-        <v>2.0126740551672651</v>
+        <v>149.85014132434742</v>
       </c>
       <c r="AA244" s="23"/>
     </row>
@@ -22378,11 +22378,11 @@
       </c>
       <c r="Y245" s="24">
         <f t="shared" si="6"/>
-        <v>3.56E-2</v>
+        <v>3.4079999999999995</v>
       </c>
       <c r="Z245" s="24">
         <f t="shared" si="7"/>
-        <v>2.0126740551672651</v>
+        <v>149.85014132434742</v>
       </c>
       <c r="AA245" s="23"/>
     </row>
@@ -22461,11 +22461,11 @@
       </c>
       <c r="Y246" s="24">
         <f t="shared" si="6"/>
-        <v>3.8079999999999996E-2</v>
+        <v>3.6560000000000001</v>
       </c>
       <c r="Z246" s="24">
         <f t="shared" si="7"/>
-        <v>2.2789610493403853</v>
+        <v>170.63734123859811</v>
       </c>
       <c r="AA246" s="23"/>
     </row>
@@ -22544,11 +22544,11 @@
       </c>
       <c r="Y247" s="24">
         <f t="shared" si="6"/>
-        <v>3.8079999999999996E-2</v>
+        <v>3.6560000000000001</v>
       </c>
       <c r="Z247" s="24">
         <f t="shared" si="7"/>
-        <v>2.2789610493403853</v>
+        <v>170.63734123859811</v>
       </c>
       <c r="AA247" s="23"/>
     </row>
@@ -22627,11 +22627,11 @@
       </c>
       <c r="Y248" s="24">
         <f t="shared" si="6"/>
-        <v>3.8079999999999996E-2</v>
+        <v>3.6560000000000001</v>
       </c>
       <c r="Z248" s="24">
         <f t="shared" si="7"/>
-        <v>2.2789610493403853</v>
+        <v>170.63734123859811</v>
       </c>
       <c r="AA248" s="23"/>
     </row>
@@ -22710,11 +22710,11 @@
       </c>
       <c r="Y249" s="24">
         <f t="shared" si="6"/>
-        <v>4.0399999999999998E-2</v>
+        <v>3.8879999999999995</v>
       </c>
       <c r="Z249" s="24">
         <f t="shared" si="7"/>
-        <v>2.6947358856197949</v>
+        <v>204.48640605192108</v>
       </c>
       <c r="AA249" s="23"/>
     </row>
@@ -22793,11 +22793,11 @@
       </c>
       <c r="Y250" s="24">
         <f t="shared" si="6"/>
-        <v>4.0399999999999998E-2</v>
+        <v>3.8879999999999995</v>
       </c>
       <c r="Z250" s="24">
         <f t="shared" si="7"/>
-        <v>2.7563947569838136</v>
+        <v>209.74236183004987</v>
       </c>
       <c r="AA250" s="23"/>
     </row>
@@ -22876,11 +22876,11 @@
       </c>
       <c r="Y251" s="24">
         <f t="shared" si="6"/>
-        <v>4.0399999999999998E-2</v>
+        <v>3.8879999999999995</v>
       </c>
       <c r="Z251" s="24">
         <f t="shared" si="7"/>
-        <v>2.7563947569838136</v>
+        <v>209.74236183004987</v>
       </c>
       <c r="AA251" s="23"/>
     </row>
@@ -22959,11 +22959,11 @@
       </c>
       <c r="Y252" s="24">
         <f t="shared" si="6"/>
-        <v>4.0399999999999998E-2</v>
+        <v>3.8879999999999995</v>
       </c>
       <c r="Z252" s="24">
         <f t="shared" si="7"/>
-        <v>2.7563947569838136</v>
+        <v>209.74236183004987</v>
       </c>
       <c r="AA252" s="23"/>
     </row>
@@ -23042,11 +23042,11 @@
       </c>
       <c r="Y253" s="24">
         <f t="shared" si="6"/>
-        <v>4.0399999999999998E-2</v>
+        <v>3.8879999999999995</v>
       </c>
       <c r="Z253" s="24">
         <f t="shared" si="7"/>
-        <v>2.7563947569838136</v>
+        <v>209.74236183004987</v>
       </c>
       <c r="AA253" s="23"/>
     </row>
@@ -23125,11 +23125,11 @@
       </c>
       <c r="Y254" s="24">
         <f t="shared" si="6"/>
-        <v>4.6000000000000006E-2</v>
+        <v>4.4320000000000004</v>
       </c>
       <c r="Z254" s="24">
         <f t="shared" si="7"/>
-        <v>3.3821166358322912</v>
+        <v>256.16964658500854</v>
       </c>
       <c r="AA254" s="23"/>
     </row>
@@ -23208,11 +23208,11 @@
       </c>
       <c r="Y255" s="24">
         <f t="shared" si="6"/>
-        <v>4.6000000000000006E-2</v>
+        <v>4.4320000000000004</v>
       </c>
       <c r="Z255" s="24">
         <f t="shared" si="7"/>
-        <v>3.3821166358322912</v>
+        <v>256.16964658500854</v>
       </c>
       <c r="AA255" s="23"/>
     </row>
@@ -23291,11 +23291,11 @@
       </c>
       <c r="Y256" s="24">
         <f t="shared" si="6"/>
-        <v>4.6000000000000006E-2</v>
+        <v>4.4320000000000004</v>
       </c>
       <c r="Z256" s="24">
         <f t="shared" si="7"/>
-        <v>3.3821166358322912</v>
+        <v>256.16964658500854</v>
       </c>
       <c r="AA256" s="23"/>
     </row>
@@ -23374,11 +23374,11 @@
       </c>
       <c r="Y257" s="24">
         <f t="shared" si="6"/>
-        <v>4.6000000000000006E-2</v>
+        <v>4.4320000000000004</v>
       </c>
       <c r="Z257" s="24">
         <f t="shared" si="7"/>
-        <v>3.3821166358322912</v>
+        <v>256.16964658500854</v>
       </c>
       <c r="AA257" s="23"/>
     </row>
@@ -23457,11 +23457,11 @@
       </c>
       <c r="Y258" s="24">
         <f t="shared" si="6"/>
-        <v>4.4639999999999992E-2</v>
+        <v>4.2879999999999994</v>
       </c>
       <c r="Z258" s="24">
         <f t="shared" si="7"/>
-        <v>3.4060314224952211</v>
+        <v>259.19541813097123</v>
       </c>
       <c r="AA258" s="23"/>
     </row>
